--- a/Outputs/3. Prosumer percentage/Output Files/100/Output_13_34.xlsx
+++ b/Outputs/3. Prosumer percentage/Output Files/100/Output_13_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1163056.796984501</v>
+        <v>1147259.878804229</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>28215137.91942699</v>
+        <v>28215137.91942698</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5398024.314832513</v>
+        <v>5398024.314832514</v>
       </c>
     </row>
     <row r="11">
@@ -721,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770259</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
         <v>14.9510387864824</v>
@@ -743,19 +743,19 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -797,13 +797,13 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -816,25 +816,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="D4" t="n">
-        <v>36.39025468426208</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="E4" t="n">
-        <v>41.31500304752735</v>
+        <v>36.39025468426209</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -974,22 +974,22 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
+      <c r="F6" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1025,10 +1025,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>36.39025468426208</v>
       </c>
       <c r="T6" t="n">
-        <v>36.39025468426208</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1043,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1068,13 +1068,13 @@
         <v>41.31500304752735</v>
       </c>
       <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>41.31500304752735</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>41.31500304752735</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>15.18661160258025</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>15.18661160258025</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1220,17 +1220,17 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>36.39025468426209</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1271,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1280,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>41.31500304752735</v>
+        <v>36.39025468426208</v>
       </c>
     </row>
     <row r="10">
@@ -1299,10 +1299,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
         <v>41.31500304752735</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>41.31500304752735</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>15.18661160258025</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
         <v>41.31500304752735</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" t="n">
-        <v>36.39025468426208</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1372,10 +1372,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>420.4169712684224</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
@@ -1384,7 +1384,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>395.9513258013682</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>50.17164010427808</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>159.2278141368041</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.5154774752252</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1463,7 +1463,7 @@
         <v>82.55</v>
       </c>
       <c r="G12" t="n">
-        <v>83.76476917948099</v>
+        <v>83.76476917948101</v>
       </c>
       <c r="H12" t="n">
         <v>33.9158123956896</v>
@@ -1548,7 +1548,7 @@
         <v>132.7900107487581</v>
       </c>
       <c r="I13" t="n">
-        <v>68.44914407541626</v>
+        <v>68.44914407541627</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>146.4504960531557</v>
+        <v>146.4504960531559</v>
       </c>
       <c r="T13" t="n">
         <v>240.675072556151</v>
@@ -1609,16 +1609,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>345.4182836248303</v>
       </c>
       <c r="G14" t="n">
         <v>395.9513258013682</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>50.17164010427808</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>211.5956667680352</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1672,7 +1672,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>156.8248942179152</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
         <v>404.2032624633431</v>
@@ -1700,7 +1700,7 @@
         <v>82.55</v>
       </c>
       <c r="G15" t="n">
-        <v>83.76476917948099</v>
+        <v>83.76476917948101</v>
       </c>
       <c r="H15" t="n">
         <v>33.9158123956896</v>
@@ -1785,7 +1785,7 @@
         <v>132.7900107487581</v>
       </c>
       <c r="I16" t="n">
-        <v>68.44914407541626</v>
+        <v>68.44914407541627</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>193.4825239600284</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>409.3931644261501</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>395.9513258013682</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>271.5679831933489</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1897,19 +1897,19 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>211.5956667680352</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.5154774752252</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>404.2032624633431</v>
@@ -1937,7 +1937,7 @@
         <v>82.55</v>
       </c>
       <c r="G18" t="n">
-        <v>83.76476917948099</v>
+        <v>83.76476917948101</v>
       </c>
       <c r="H18" t="n">
         <v>33.9158123956896</v>
@@ -2022,7 +2022,7 @@
         <v>132.7900107487581</v>
       </c>
       <c r="I19" t="n">
-        <v>68.44914407541626</v>
+        <v>68.44914407541627</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2080,19 +2080,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>377.3591497416158</v>
       </c>
       <c r="G20" t="n">
         <v>395.9513258013682</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>50.17164010427808</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>211.5956667680352</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.5154774752252</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>9.128172811502845</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2174,7 +2174,7 @@
         <v>82.55</v>
       </c>
       <c r="G21" t="n">
-        <v>83.76476917948099</v>
+        <v>83.76476917948101</v>
       </c>
       <c r="H21" t="n">
         <v>33.9158123956896</v>
@@ -2259,7 +2259,7 @@
         <v>132.7900107487581</v>
       </c>
       <c r="I22" t="n">
-        <v>68.44914407541626</v>
+        <v>68.44914407541627</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>50.17164010427806</v>
+        <v>50.17164010427808</v>
       </c>
       <c r="T23" t="n">
         <v>211.5956667680352</v>
       </c>
       <c r="U23" t="n">
-        <v>256.5154774752247</v>
+        <v>256.5154774752265</v>
       </c>
       <c r="V23" t="n">
         <v>358.9907805655117</v>
@@ -2411,7 +2411,7 @@
         <v>82.55</v>
       </c>
       <c r="G24" t="n">
-        <v>83.76476917948099</v>
+        <v>83.76476917948101</v>
       </c>
       <c r="H24" t="n">
         <v>33.9158123956896</v>
@@ -2496,7 +2496,7 @@
         <v>132.7900107487581</v>
       </c>
       <c r="I25" t="n">
-        <v>68.44914407541626</v>
+        <v>68.44914407541627</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>50.17164010427806</v>
+        <v>50.17164010427808</v>
       </c>
       <c r="T26" t="n">
-        <v>211.5956667680341</v>
+        <v>211.5956667680352</v>
       </c>
       <c r="U26" t="n">
-        <v>256.5154774752252</v>
+        <v>256.5154774752247</v>
       </c>
       <c r="V26" t="n">
         <v>358.9907805655117</v>
@@ -2648,7 +2648,7 @@
         <v>82.55</v>
       </c>
       <c r="G27" t="n">
-        <v>83.76476917948099</v>
+        <v>83.76476917948101</v>
       </c>
       <c r="H27" t="n">
         <v>33.9158123956896</v>
@@ -2733,7 +2733,7 @@
         <v>132.7900107487581</v>
       </c>
       <c r="I28" t="n">
-        <v>68.44914407541626</v>
+        <v>68.44914407541627</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>50.17164010427806</v>
+        <v>50.17164010427808</v>
       </c>
       <c r="T29" t="n">
         <v>211.5956667680352</v>
@@ -2854,7 +2854,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430764</v>
       </c>
       <c r="X29" t="n">
         <v>414.9510387864824</v>
@@ -2885,7 +2885,7 @@
         <v>82.55</v>
       </c>
       <c r="G30" t="n">
-        <v>83.76476917948099</v>
+        <v>83.76476917948101</v>
       </c>
       <c r="H30" t="n">
         <v>33.9158123956896</v>
@@ -2970,7 +2970,7 @@
         <v>132.7900107487581</v>
       </c>
       <c r="I31" t="n">
-        <v>68.44914407541626</v>
+        <v>68.44914407541627</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>50.17164010427806</v>
+        <v>50.17164010427808</v>
       </c>
       <c r="T32" t="n">
         <v>211.5956667680352</v>
@@ -3091,7 +3091,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430764</v>
       </c>
       <c r="X32" t="n">
         <v>414.9510387864824</v>
@@ -3122,7 +3122,7 @@
         <v>82.55</v>
       </c>
       <c r="G33" t="n">
-        <v>83.76476917948099</v>
+        <v>83.76476917948101</v>
       </c>
       <c r="H33" t="n">
         <v>33.9158123956896</v>
@@ -3207,7 +3207,7 @@
         <v>132.7900107487581</v>
       </c>
       <c r="I34" t="n">
-        <v>68.44914407541626</v>
+        <v>68.44914407541627</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3265,22 +3265,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>234.7168338766722</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>395.9513258013682</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>271.5679831933489</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>50.17164010427806</v>
+        <v>50.17164010427808</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3325,13 +3325,13 @@
         <v>256.5154774752252</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>333.6768758868037</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
         <v>404.2032624633431</v>
@@ -3359,7 +3359,7 @@
         <v>82.55</v>
       </c>
       <c r="G36" t="n">
-        <v>83.76476917948099</v>
+        <v>83.76476917948101</v>
       </c>
       <c r="H36" t="n">
         <v>33.9158123956896</v>
@@ -3444,7 +3444,7 @@
         <v>132.7900107487581</v>
       </c>
       <c r="I37" t="n">
-        <v>68.44914407541626</v>
+        <v>68.44914407541627</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>146.4504960531559</v>
       </c>
       <c r="T37" t="n">
-        <v>240.6750725561512</v>
+        <v>240.675072556151</v>
       </c>
       <c r="U37" t="n">
         <v>275.6136207896234</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3511,7 +3511,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>121.2048134299293</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>50.17164010427808</v>
       </c>
       <c r="T38" t="n">
         <v>211.5956667680352</v>
@@ -3562,13 +3562,13 @@
         <v>256.5154774752252</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>93.84470071285484</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
         <v>404.2032624633431</v>
@@ -3596,7 +3596,7 @@
         <v>82.55</v>
       </c>
       <c r="G39" t="n">
-        <v>83.76476917948099</v>
+        <v>83.76476917948101</v>
       </c>
       <c r="H39" t="n">
         <v>33.9158123956896</v>
@@ -3681,7 +3681,7 @@
         <v>132.7900107487581</v>
       </c>
       <c r="I40" t="n">
-        <v>68.44914407541626</v>
+        <v>68.44914407541627</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>20.56100404196569</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>429.4369973932878</v>
@@ -3754,10 +3754,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>395.9513258013682</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>271.5679831933489</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>50.17164010427808</v>
       </c>
       <c r="T41" t="n">
-        <v>211.5956667680352</v>
+        <v>178.0378234387322</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.5154774752252</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
@@ -3805,7 +3805,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
         <v>404.2032624633431</v>
@@ -3833,7 +3833,7 @@
         <v>82.55</v>
       </c>
       <c r="G42" t="n">
-        <v>83.76476917948099</v>
+        <v>83.76476917948101</v>
       </c>
       <c r="H42" t="n">
         <v>33.9158123956896</v>
@@ -3918,7 +3918,7 @@
         <v>132.7900107487581</v>
       </c>
       <c r="I43" t="n">
-        <v>68.44914407541626</v>
+        <v>68.44914407541627</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3976,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>381.9930490142597</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3988,10 +3988,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>375.9061849494223</v>
+        <v>395.9513258013682</v>
       </c>
       <c r="H44" t="n">
         <v>271.5679831933489</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>50.17164010427808</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>211.5956667680352</v>
       </c>
       <c r="U44" t="n">
-        <v>256.5154774752252</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
@@ -4042,10 +4042,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4070,7 +4070,7 @@
         <v>82.55</v>
       </c>
       <c r="G45" t="n">
-        <v>83.76476917948099</v>
+        <v>83.76476917948101</v>
       </c>
       <c r="H45" t="n">
         <v>33.9158123956896</v>
@@ -4155,7 +4155,7 @@
         <v>132.7900107487581</v>
       </c>
       <c r="I46" t="n">
-        <v>68.44914407541626</v>
+        <v>68.44914407541627</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4309,13 +4309,13 @@
         <v>122.8380161568152</v>
       </c>
       <c r="C2" t="n">
-        <v>88.73594738064259</v>
+        <v>88.7359473806426</v>
       </c>
       <c r="D2" t="n">
-        <v>56.86656659549116</v>
+        <v>56.86656659549119</v>
       </c>
       <c r="E2" t="n">
-        <v>27.13222579419039</v>
+        <v>27.13222579419042</v>
       </c>
       <c r="F2" t="n">
         <v>3.305200243802188</v>
@@ -4342,13 +4342,13 @@
         <v>3.305200243802188</v>
       </c>
       <c r="N2" t="n">
-        <v>44.20705326085427</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="O2" t="n">
-        <v>85.10890627790634</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="P2" t="n">
-        <v>124.3581591730573</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="Q2" t="n">
         <v>124.3581591730573</v>
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>128.5021791757032</v>
+      </c>
+      <c r="C3" t="n">
+        <v>128.5021791757032</v>
+      </c>
+      <c r="D3" t="n">
+        <v>128.5021791757032</v>
+      </c>
+      <c r="E3" t="n">
+        <v>128.5021791757032</v>
+      </c>
+      <c r="F3" t="n">
+        <v>86.76985286506957</v>
+      </c>
+      <c r="G3" t="n">
         <v>45.03752655443588</v>
-      </c>
-      <c r="C3" t="n">
-        <v>45.03752655443588</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.305200243802188</v>
-      </c>
-      <c r="E3" t="n">
-        <v>3.305200243802188</v>
-      </c>
-      <c r="F3" t="n">
-        <v>3.305200243802188</v>
-      </c>
-      <c r="G3" t="n">
-        <v>3.305200243802188</v>
       </c>
       <c r="H3" t="n">
         <v>3.305200243802188</v>
@@ -4409,28 +4409,28 @@
         <v>29.36887340425979</v>
       </c>
       <c r="J3" t="n">
-        <v>70.27072642131186</v>
+        <v>29.36887340425979</v>
       </c>
       <c r="K3" t="n">
+        <v>29.36887340425979</v>
+      </c>
+      <c r="L3" t="n">
+        <v>29.36887340425979</v>
+      </c>
+      <c r="M3" t="n">
+        <v>29.36887340425979</v>
+      </c>
+      <c r="N3" t="n">
+        <v>29.36887340425979</v>
+      </c>
+      <c r="O3" t="n">
+        <v>42.55445313895319</v>
+      </c>
+      <c r="P3" t="n">
         <v>83.45630615600527</v>
       </c>
-      <c r="L3" t="n">
+      <c r="Q3" t="n">
         <v>124.3581591730573</v>
-      </c>
-      <c r="M3" t="n">
-        <v>124.3581591730573</v>
-      </c>
-      <c r="N3" t="n">
-        <v>124.3581591730573</v>
-      </c>
-      <c r="O3" t="n">
-        <v>165.2600121901094</v>
-      </c>
-      <c r="P3" t="n">
-        <v>165.2600121901094</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>165.2600121901094</v>
       </c>
       <c r="R3" t="n">
         <v>165.2600121901094</v>
@@ -4445,16 +4445,16 @@
         <v>128.5021791757032</v>
       </c>
       <c r="V3" t="n">
-        <v>86.76985286506957</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="W3" t="n">
-        <v>86.76985286506957</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="X3" t="n">
-        <v>45.03752655443588</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="Y3" t="n">
-        <v>45.03752655443588</v>
+        <v>128.5021791757032</v>
       </c>
     </row>
     <row r="4">
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>165.2600121901094</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="C4" t="n">
-        <v>165.2600121901094</v>
+        <v>81.79535956884203</v>
       </c>
       <c r="D4" t="n">
-        <v>128.5021791757032</v>
+        <v>40.06303325820834</v>
       </c>
       <c r="E4" t="n">
-        <v>86.76985286506957</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="F4" t="n">
-        <v>86.76985286506957</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="G4" t="n">
-        <v>45.03752655443588</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="H4" t="n">
         <v>3.305200243802188</v>
@@ -4488,25 +4488,25 @@
         <v>3.305200243802188</v>
       </c>
       <c r="J4" t="n">
-        <v>44.20705326085427</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="K4" t="n">
-        <v>85.10890627790634</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="L4" t="n">
-        <v>124.3581591730573</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="M4" t="n">
-        <v>124.3581591730573</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="N4" t="n">
         <v>124.3581591730573</v>
       </c>
       <c r="O4" t="n">
-        <v>124.3581591730573</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="P4" t="n">
-        <v>124.3581591730573</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="Q4" t="n">
         <v>165.2600121901094</v>
@@ -4561,7 +4561,7 @@
         <v>3.305200243802236</v>
       </c>
       <c r="H5" t="n">
-        <v>3.305200243802236</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="I5" t="n">
         <v>3.305200243802188</v>
@@ -4573,22 +4573,22 @@
         <v>44.20705326085427</v>
       </c>
       <c r="L5" t="n">
-        <v>44.20705326085427</v>
+        <v>85.10890627790634</v>
       </c>
       <c r="M5" t="n">
-        <v>44.20705326085427</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="N5" t="n">
-        <v>85.10890627790634</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="O5" t="n">
-        <v>126.0107592949584</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="P5" t="n">
-        <v>126.0107592949584</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="Q5" t="n">
-        <v>165.2600121901094</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="R5" t="n">
         <v>165.2600121901094</v>
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>128.5021791757032</v>
+      </c>
+      <c r="C6" t="n">
+        <v>128.5021791757032</v>
+      </c>
+      <c r="D6" t="n">
+        <v>128.5021791757032</v>
+      </c>
+      <c r="E6" t="n">
+        <v>86.76985286506957</v>
+      </c>
+      <c r="F6" t="n">
         <v>45.03752655443588</v>
-      </c>
-      <c r="C6" t="n">
-        <v>45.03752655443588</v>
-      </c>
-      <c r="D6" t="n">
-        <v>3.305200243802188</v>
-      </c>
-      <c r="E6" t="n">
-        <v>3.305200243802188</v>
-      </c>
-      <c r="F6" t="n">
-        <v>3.305200243802188</v>
       </c>
       <c r="G6" t="n">
         <v>3.305200243802188</v>
@@ -4646,13 +4646,13 @@
         <v>29.36887340425979</v>
       </c>
       <c r="J6" t="n">
+        <v>29.36887340425979</v>
+      </c>
+      <c r="K6" t="n">
         <v>70.27072642131186</v>
       </c>
-      <c r="K6" t="n">
+      <c r="L6" t="n">
         <v>111.1725794383639</v>
-      </c>
-      <c r="L6" t="n">
-        <v>124.3581591730573</v>
       </c>
       <c r="M6" t="n">
         <v>124.3581591730573</v>
@@ -4673,7 +4673,7 @@
         <v>165.2600121901094</v>
       </c>
       <c r="S6" t="n">
-        <v>165.2600121901094</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="T6" t="n">
         <v>128.5021791757032</v>
@@ -4691,7 +4691,7 @@
         <v>128.5021791757032</v>
       </c>
       <c r="Y6" t="n">
-        <v>86.76985286506957</v>
+        <v>128.5021791757032</v>
       </c>
     </row>
     <row r="7">
@@ -4716,10 +4716,10 @@
         <v>45.03752655443588</v>
       </c>
       <c r="G7" t="n">
-        <v>3.305200243802188</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="H7" t="n">
-        <v>3.305200243802188</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="I7" t="n">
         <v>3.305200243802188</v>
@@ -4731,19 +4731,19 @@
         <v>85.10890627790634</v>
       </c>
       <c r="L7" t="n">
-        <v>85.10890627790634</v>
+        <v>126.0107592949584</v>
       </c>
       <c r="M7" t="n">
-        <v>85.10890627790634</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="N7" t="n">
-        <v>85.10890627790634</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="O7" t="n">
-        <v>85.10890627790634</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="P7" t="n">
-        <v>126.0107592949584</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="Q7" t="n">
         <v>165.2600121901094</v>
@@ -4758,13 +4758,13 @@
         <v>102.1098645848476</v>
       </c>
       <c r="U7" t="n">
-        <v>102.1098645848476</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="V7" t="n">
-        <v>102.1098645848476</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="W7" t="n">
-        <v>102.1098645848476</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="X7" t="n">
         <v>86.76985286506957</v>
@@ -4783,7 +4783,7 @@
         <v>122.8380161568152</v>
       </c>
       <c r="C8" t="n">
-        <v>88.7359473806426</v>
+        <v>88.73594738064259</v>
       </c>
       <c r="D8" t="n">
         <v>56.86656659549116</v>
@@ -4807,13 +4807,13 @@
         <v>44.20705326085427</v>
       </c>
       <c r="K8" t="n">
-        <v>83.45630615600527</v>
+        <v>85.10890627790634</v>
       </c>
       <c r="L8" t="n">
-        <v>83.45630615600527</v>
+        <v>126.0107592949584</v>
       </c>
       <c r="M8" t="n">
-        <v>124.3581591730573</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="N8" t="n">
         <v>165.2600121901094</v>
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>81.79535956884203</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="C9" t="n">
-        <v>81.79535956884203</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="D9" t="n">
-        <v>81.79535956884203</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="E9" t="n">
         <v>45.03752655443588</v>
       </c>
       <c r="F9" t="n">
-        <v>3.305200243802188</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="G9" t="n">
-        <v>3.305200243802188</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="H9" t="n">
         <v>3.305200243802188</v>
@@ -4889,16 +4889,16 @@
         <v>29.36887340425979</v>
       </c>
       <c r="L9" t="n">
-        <v>29.36887340425979</v>
+        <v>70.27072642131186</v>
       </c>
       <c r="M9" t="n">
-        <v>29.36887340425979</v>
+        <v>70.27072642131186</v>
       </c>
       <c r="N9" t="n">
-        <v>29.36887340425979</v>
+        <v>70.27072642131186</v>
       </c>
       <c r="O9" t="n">
-        <v>42.55445313895319</v>
+        <v>70.27072642131186</v>
       </c>
       <c r="P9" t="n">
         <v>83.45630615600527</v>
@@ -4910,13 +4910,13 @@
         <v>165.2600121901094</v>
       </c>
       <c r="S9" t="n">
-        <v>165.2600121901094</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="T9" t="n">
-        <v>165.2600121901094</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="U9" t="n">
-        <v>165.2600121901094</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="V9" t="n">
         <v>123.5276858794757</v>
@@ -4928,7 +4928,7 @@
         <v>123.5276858794757</v>
       </c>
       <c r="Y9" t="n">
-        <v>81.79535956884203</v>
+        <v>86.76985286506957</v>
       </c>
     </row>
     <row r="10">
@@ -4947,7 +4947,7 @@
         <v>86.76985286506957</v>
       </c>
       <c r="E10" t="n">
-        <v>45.03752655443588</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="F10" t="n">
         <v>45.03752655443588</v>
@@ -4971,13 +4971,13 @@
         <v>44.20705326085427</v>
       </c>
       <c r="M10" t="n">
-        <v>44.20705326085427</v>
+        <v>85.10890627790634</v>
       </c>
       <c r="N10" t="n">
-        <v>85.10890627790634</v>
+        <v>126.0107592949584</v>
       </c>
       <c r="O10" t="n">
-        <v>126.0107592949584</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="P10" t="n">
         <v>165.2600121901094</v>
@@ -4986,25 +4986,25 @@
         <v>165.2600121901094</v>
       </c>
       <c r="R10" t="n">
-        <v>165.2600121901094</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="S10" t="n">
-        <v>123.5276858794757</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="T10" t="n">
-        <v>123.5276858794757</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="U10" t="n">
-        <v>123.5276858794757</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="V10" t="n">
-        <v>123.5276858794757</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="W10" t="n">
-        <v>123.5276858794757</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="X10" t="n">
-        <v>86.76985286506957</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="Y10" t="n">
         <v>86.76985286506957</v>
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2182.292203166207</v>
+        <v>1359.910449672591</v>
       </c>
       <c r="C11" t="n">
-        <v>1757.628595824366</v>
+        <v>921.7679768560143</v>
       </c>
       <c r="D11" t="n">
-        <v>1321.718810998811</v>
+        <v>921.7679768560143</v>
       </c>
       <c r="E11" t="n">
-        <v>887.9440661571057</v>
+        <v>487.9932320143095</v>
       </c>
       <c r="F11" t="n">
-        <v>460.0766365663134</v>
+        <v>60.12580242351726</v>
       </c>
       <c r="G11" t="n">
         <v>60.12580242351726</v>
@@ -5041,22 +5041,22 @@
         <v>114.3925393395051</v>
       </c>
       <c r="J11" t="n">
-        <v>670.0153478550028</v>
+        <v>670.0153478550027</v>
       </c>
       <c r="K11" t="n">
-        <v>850.4159591112997</v>
+        <v>850.4159591112995</v>
       </c>
       <c r="L11" t="n">
-        <v>1074.218869487984</v>
+        <v>1074.218869487983</v>
       </c>
       <c r="M11" t="n">
-        <v>1323.242729486272</v>
+        <v>1323.242729486271</v>
       </c>
       <c r="N11" t="n">
         <v>1576.296055885762</v>
       </c>
       <c r="O11" t="n">
-        <v>1815.247136257288</v>
+        <v>1815.247136257287</v>
       </c>
       <c r="P11" t="n">
         <v>2048.4012797357</v>
@@ -5068,25 +5068,25 @@
         <v>3006.290121175863</v>
       </c>
       <c r="S11" t="n">
-        <v>3006.290121175863</v>
+        <v>2955.611696828107</v>
       </c>
       <c r="T11" t="n">
-        <v>3006.290121175863</v>
+        <v>2794.775520932345</v>
       </c>
       <c r="U11" t="n">
-        <v>3006.290121175863</v>
+        <v>2535.668978028078</v>
       </c>
       <c r="V11" t="n">
-        <v>3006.290121175863</v>
+        <v>2173.052027961904</v>
       </c>
       <c r="W11" t="n">
-        <v>2601.434666586896</v>
+        <v>1768.196573372938</v>
       </c>
       <c r="X11" t="n">
-        <v>2182.292203166207</v>
+        <v>1768.196573372938</v>
       </c>
       <c r="Y11" t="n">
-        <v>2182.292203166207</v>
+        <v>1359.910449672591</v>
       </c>
     </row>
     <row r="12">
@@ -5117,31 +5117,31 @@
         <v>60.12580242351726</v>
       </c>
       <c r="I12" t="n">
-        <v>86.25132408734105</v>
+        <v>112.3149972477986</v>
       </c>
       <c r="J12" t="n">
-        <v>157.9417523880326</v>
+        <v>434.0744497294284</v>
       </c>
       <c r="K12" t="n">
-        <v>280.472113037332</v>
+        <v>556.6048103787277</v>
       </c>
       <c r="L12" t="n">
-        <v>445.2293041160067</v>
+        <v>721.3620014574024</v>
       </c>
       <c r="M12" t="n">
-        <v>637.4931750101596</v>
+        <v>913.6258723515552</v>
       </c>
       <c r="N12" t="n">
-        <v>834.8456984678777</v>
+        <v>1110.978395809273</v>
       </c>
       <c r="O12" t="n">
-        <v>1015.384701486661</v>
+        <v>1291.517398828056</v>
       </c>
       <c r="P12" t="n">
-        <v>1160.283168008898</v>
+        <v>1436.415865350293</v>
       </c>
       <c r="Q12" t="n">
-        <v>1650.449431024751</v>
+        <v>1533.276652930412</v>
       </c>
       <c r="R12" t="n">
         <v>1697.561900409858</v>
@@ -5178,19 +5178,19 @@
         <v>1113.244639915734</v>
       </c>
       <c r="C13" t="n">
-        <v>940.682928398959</v>
+        <v>940.6829283989587</v>
       </c>
       <c r="D13" t="n">
-        <v>774.8049356004817</v>
+        <v>774.8049356004813</v>
       </c>
       <c r="E13" t="n">
-        <v>605.0469318512189</v>
+        <v>605.0469318512182</v>
       </c>
       <c r="F13" t="n">
-        <v>428.3398778129751</v>
+        <v>428.3398778129745</v>
       </c>
       <c r="G13" t="n">
-        <v>263.3976759832894</v>
+        <v>263.397675983289</v>
       </c>
       <c r="H13" t="n">
         <v>129.2663519946448</v>
@@ -5199,25 +5199,25 @@
         <v>60.12580242351726</v>
       </c>
       <c r="J13" t="n">
-        <v>191.6817584242374</v>
+        <v>105.1020732595475</v>
       </c>
       <c r="K13" t="n">
-        <v>540.3500421434336</v>
+        <v>399.7727096942242</v>
       </c>
       <c r="L13" t="n">
-        <v>1053.139058957356</v>
+        <v>912.5617265081463</v>
       </c>
       <c r="M13" t="n">
-        <v>1612.343363070977</v>
+        <v>1471.766030621767</v>
       </c>
       <c r="N13" t="n">
-        <v>2151.951474057206</v>
+        <v>2011.374141607996</v>
       </c>
       <c r="O13" t="n">
-        <v>2661.538565504743</v>
+        <v>2520.961233055534</v>
       </c>
       <c r="P13" t="n">
-        <v>2777.215599969509</v>
+        <v>2945.408374833841</v>
       </c>
       <c r="Q13" t="n">
         <v>2998.677814292588</v>
@@ -5229,7 +5229,7 @@
         <v>2858.360327182776</v>
       </c>
       <c r="T13" t="n">
-        <v>2615.254193287674</v>
+        <v>2615.254193287673</v>
       </c>
       <c r="U13" t="n">
         <v>2336.856596530478</v>
@@ -5238,7 +5238,7 @@
         <v>2049.901088400909</v>
       </c>
       <c r="W13" t="n">
-        <v>1777.874683987201</v>
+        <v>1777.8746839872</v>
       </c>
       <c r="X13" t="n">
         <v>1532.482929320613</v>
@@ -5254,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1608.439988343142</v>
+        <v>1083.295087897808</v>
       </c>
       <c r="C14" t="n">
-        <v>1170.297515526565</v>
+        <v>1083.295087897808</v>
       </c>
       <c r="D14" t="n">
-        <v>734.3877307010093</v>
+        <v>1083.295087897808</v>
       </c>
       <c r="E14" t="n">
-        <v>734.3877307010093</v>
+        <v>1083.295087897808</v>
       </c>
       <c r="F14" t="n">
         <v>734.3877307010093</v>
@@ -5278,25 +5278,25 @@
         <v>114.3925393395051</v>
       </c>
       <c r="J14" t="n">
-        <v>670.0153478550028</v>
+        <v>670.0153478550027</v>
       </c>
       <c r="K14" t="n">
-        <v>850.4159591112997</v>
+        <v>850.4159591112995</v>
       </c>
       <c r="L14" t="n">
-        <v>1074.218869487984</v>
+        <v>1594.472764102326</v>
       </c>
       <c r="M14" t="n">
-        <v>1323.242729486272</v>
+        <v>1843.496624100614</v>
       </c>
       <c r="N14" t="n">
-        <v>2067.299534477298</v>
+        <v>2096.549950500104</v>
       </c>
       <c r="O14" t="n">
-        <v>2306.250614848823</v>
+        <v>2335.501030871629</v>
       </c>
       <c r="P14" t="n">
-        <v>2510.189833617291</v>
+        <v>2539.440249640098</v>
       </c>
       <c r="Q14" t="n">
         <v>2748.049925732253</v>
@@ -5305,25 +5305,25 @@
         <v>3006.290121175863</v>
       </c>
       <c r="S14" t="n">
-        <v>3006.290121175863</v>
+        <v>2955.611696828107</v>
       </c>
       <c r="T14" t="n">
-        <v>3006.290121175863</v>
+        <v>2741.878700092718</v>
       </c>
       <c r="U14" t="n">
-        <v>3006.290121175863</v>
+        <v>2741.878700092718</v>
       </c>
       <c r="V14" t="n">
-        <v>3006.290121175863</v>
+        <v>2741.878700092718</v>
       </c>
       <c r="W14" t="n">
-        <v>2601.434666586896</v>
+        <v>2337.023245503751</v>
       </c>
       <c r="X14" t="n">
-        <v>2443.025682528396</v>
+        <v>1917.880782083062</v>
       </c>
       <c r="Y14" t="n">
-        <v>2034.739558828049</v>
+        <v>1509.594658382715</v>
       </c>
     </row>
     <row r="15">
@@ -5354,31 +5354,31 @@
         <v>60.12580242351726</v>
       </c>
       <c r="I15" t="n">
-        <v>86.25132408734105</v>
+        <v>112.3149972477986</v>
       </c>
       <c r="J15" t="n">
-        <v>434.0744497294277</v>
+        <v>508.5637505147025</v>
       </c>
       <c r="K15" t="n">
-        <v>556.6048103787272</v>
+        <v>673.7775884730677</v>
       </c>
       <c r="L15" t="n">
-        <v>721.3620014574019</v>
+        <v>838.5347795517423</v>
       </c>
       <c r="M15" t="n">
-        <v>913.6258723515548</v>
+        <v>1030.798650445895</v>
       </c>
       <c r="N15" t="n">
-        <v>1110.978395809273</v>
+        <v>1228.151173903613</v>
       </c>
       <c r="O15" t="n">
-        <v>1291.517398828056</v>
+        <v>1408.690176922396</v>
       </c>
       <c r="P15" t="n">
-        <v>1436.415865350293</v>
+        <v>1553.588643444633</v>
       </c>
       <c r="Q15" t="n">
-        <v>1533.276652930412</v>
+        <v>1650.449431024751</v>
       </c>
       <c r="R15" t="n">
         <v>1697.561900409858</v>
@@ -5412,49 +5412,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1113.244639915734</v>
+        <v>1113.244639915735</v>
       </c>
       <c r="C16" t="n">
-        <v>940.6829283989587</v>
+        <v>940.6829283989596</v>
       </c>
       <c r="D16" t="n">
-        <v>774.8049356004813</v>
+        <v>774.8049356004822</v>
       </c>
       <c r="E16" t="n">
-        <v>605.0469318512182</v>
+        <v>605.0469318512191</v>
       </c>
       <c r="F16" t="n">
-        <v>428.3398778129745</v>
+        <v>428.3398778129754</v>
       </c>
       <c r="G16" t="n">
-        <v>263.397675983289</v>
+        <v>263.3976759832894</v>
       </c>
       <c r="H16" t="n">
-        <v>129.2663519946448</v>
+        <v>129.2663519946445</v>
       </c>
       <c r="I16" t="n">
         <v>60.12580242351726</v>
       </c>
       <c r="J16" t="n">
-        <v>105.1020732595476</v>
+        <v>105.1020732595475</v>
       </c>
       <c r="K16" t="n">
-        <v>231.5799348298916</v>
+        <v>453.7703569787436</v>
       </c>
       <c r="L16" t="n">
-        <v>744.3689516438138</v>
+        <v>912.5617265081463</v>
       </c>
       <c r="M16" t="n">
-        <v>1303.573255757435</v>
+        <v>1471.766030621767</v>
       </c>
       <c r="N16" t="n">
-        <v>1843.181366743664</v>
+        <v>2011.374141607996</v>
       </c>
       <c r="O16" t="n">
-        <v>2352.768458191201</v>
+        <v>2520.961233055534</v>
       </c>
       <c r="P16" t="n">
-        <v>2777.215599969509</v>
+        <v>2945.408374833841</v>
       </c>
       <c r="Q16" t="n">
         <v>2998.677814292588</v>
@@ -5466,22 +5466,22 @@
         <v>2858.360327182776</v>
       </c>
       <c r="T16" t="n">
-        <v>2615.254193287673</v>
+        <v>2615.254193287674</v>
       </c>
       <c r="U16" t="n">
-        <v>2336.856596530478</v>
+        <v>2336.856596530479</v>
       </c>
       <c r="V16" t="n">
         <v>2049.901088400909</v>
       </c>
       <c r="W16" t="n">
-        <v>1777.8746839872</v>
+        <v>1777.874683987201</v>
       </c>
       <c r="X16" t="n">
         <v>1532.482929320613</v>
       </c>
       <c r="Y16" t="n">
-        <v>1305.063258634721</v>
+        <v>1305.063258634722</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1347.706508980953</v>
+        <v>1162.255160291802</v>
       </c>
       <c r="C17" t="n">
-        <v>909.5640361643759</v>
+        <v>1162.255160291802</v>
       </c>
       <c r="D17" t="n">
-        <v>473.6542513388204</v>
+        <v>1162.255160291802</v>
       </c>
       <c r="E17" t="n">
-        <v>60.12580242351726</v>
+        <v>1162.255160291802</v>
       </c>
       <c r="F17" t="n">
-        <v>60.12580242351726</v>
+        <v>734.3877307010093</v>
       </c>
       <c r="G17" t="n">
-        <v>60.12580242351726</v>
+        <v>334.4368965582132</v>
       </c>
       <c r="H17" t="n">
         <v>60.12580242351726</v>
@@ -5515,25 +5515,25 @@
         <v>114.3925393395051</v>
       </c>
       <c r="J17" t="n">
-        <v>234.7606604020849</v>
+        <v>670.0153478550027</v>
       </c>
       <c r="K17" t="n">
-        <v>879.630883821244</v>
+        <v>850.4159591112995</v>
       </c>
       <c r="L17" t="n">
-        <v>1103.433794197928</v>
+        <v>1074.218869487983</v>
       </c>
       <c r="M17" t="n">
-        <v>1352.457654196216</v>
+        <v>1323.242729486271</v>
       </c>
       <c r="N17" t="n">
-        <v>1605.510980595707</v>
+        <v>1576.296055885762</v>
       </c>
       <c r="O17" t="n">
-        <v>1844.462060967232</v>
+        <v>2320.352860876787</v>
       </c>
       <c r="P17" t="n">
-        <v>2048.4012797357</v>
+        <v>2594.900065694295</v>
       </c>
       <c r="Q17" t="n">
         <v>2748.049925732253</v>
@@ -5545,22 +5545,22 @@
         <v>3006.290121175863</v>
       </c>
       <c r="T17" t="n">
-        <v>3006.290121175863</v>
+        <v>2792.557124440474</v>
       </c>
       <c r="U17" t="n">
-        <v>3006.290121175863</v>
+        <v>2533.450581536206</v>
       </c>
       <c r="V17" t="n">
-        <v>3006.290121175863</v>
+        <v>2170.833631470032</v>
       </c>
       <c r="W17" t="n">
-        <v>2601.434666586896</v>
+        <v>1765.978176881066</v>
       </c>
       <c r="X17" t="n">
-        <v>2182.292203166207</v>
+        <v>1765.978176881066</v>
       </c>
       <c r="Y17" t="n">
-        <v>1774.00607946586</v>
+        <v>1357.692053180719</v>
       </c>
     </row>
     <row r="18">
@@ -5591,22 +5591,22 @@
         <v>60.12580242351726</v>
       </c>
       <c r="I18" t="n">
-        <v>86.25132408734105</v>
+        <v>112.3149972477986</v>
       </c>
       <c r="J18" t="n">
-        <v>157.9417523880326</v>
+        <v>508.5637505147025</v>
       </c>
       <c r="K18" t="n">
-        <v>280.472113037332</v>
+        <v>673.7775884730677</v>
       </c>
       <c r="L18" t="n">
-        <v>445.2293041160067</v>
+        <v>838.5347795517423</v>
       </c>
       <c r="M18" t="n">
-        <v>637.4931750101596</v>
+        <v>1030.798650445895</v>
       </c>
       <c r="N18" t="n">
-        <v>834.8456984678777</v>
+        <v>1228.151173903613</v>
       </c>
       <c r="O18" t="n">
         <v>1408.690176922396</v>
@@ -5673,25 +5673,25 @@
         <v>60.12580242351726</v>
       </c>
       <c r="J19" t="n">
-        <v>105.1020732595476</v>
+        <v>191.6817584242374</v>
       </c>
       <c r="K19" t="n">
-        <v>399.772709694224</v>
+        <v>540.3500421434335</v>
       </c>
       <c r="L19" t="n">
-        <v>912.5617265081461</v>
+        <v>744.3689516438141</v>
       </c>
       <c r="M19" t="n">
-        <v>1471.766030621767</v>
+        <v>1303.573255757435</v>
       </c>
       <c r="N19" t="n">
-        <v>2011.374141607996</v>
+        <v>1843.181366743664</v>
       </c>
       <c r="O19" t="n">
-        <v>2520.961233055534</v>
+        <v>2352.768458191201</v>
       </c>
       <c r="P19" t="n">
-        <v>2945.408374833841</v>
+        <v>2777.215599969509</v>
       </c>
       <c r="Q19" t="n">
         <v>2998.677814292588</v>
@@ -5728,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1757.628595824366</v>
+        <v>1715.29975253331</v>
       </c>
       <c r="C20" t="n">
-        <v>1757.628595824366</v>
+        <v>1277.157279716733</v>
       </c>
       <c r="D20" t="n">
-        <v>1321.718810998811</v>
+        <v>841.2474948911779</v>
       </c>
       <c r="E20" t="n">
-        <v>887.9440661571057</v>
+        <v>841.2474948911779</v>
       </c>
       <c r="F20" t="n">
         <v>460.0766365663134</v>
@@ -5752,52 +5752,52 @@
         <v>114.3925393395051</v>
       </c>
       <c r="J20" t="n">
-        <v>234.7606604020849</v>
+        <v>670.0153478550027</v>
       </c>
       <c r="K20" t="n">
-        <v>415.1612716583818</v>
+        <v>879.630883821245</v>
       </c>
       <c r="L20" t="n">
-        <v>638.9641820350655</v>
+        <v>1103.433794197929</v>
       </c>
       <c r="M20" t="n">
-        <v>1072.001301696831</v>
+        <v>1352.457654196217</v>
       </c>
       <c r="N20" t="n">
-        <v>1816.058106687857</v>
+        <v>1605.510980595707</v>
       </c>
       <c r="O20" t="n">
-        <v>2560.114911678883</v>
+        <v>1844.462060967232</v>
       </c>
       <c r="P20" t="n">
-        <v>2764.054130447352</v>
+        <v>2048.4012797357</v>
       </c>
       <c r="Q20" t="n">
-        <v>2917.20399048531</v>
+        <v>2748.049925732253</v>
       </c>
       <c r="R20" t="n">
         <v>3006.290121175863</v>
       </c>
       <c r="S20" t="n">
-        <v>3006.290121175863</v>
+        <v>2955.611696828107</v>
       </c>
       <c r="T20" t="n">
-        <v>3006.290121175863</v>
+        <v>2741.878700092718</v>
       </c>
       <c r="U20" t="n">
-        <v>3006.290121175863</v>
+        <v>2482.77215718845</v>
       </c>
       <c r="V20" t="n">
-        <v>3006.290121175863</v>
+        <v>2120.155207122277</v>
       </c>
       <c r="W20" t="n">
-        <v>2601.434666586896</v>
+        <v>1715.29975253331</v>
       </c>
       <c r="X20" t="n">
-        <v>2592.214290009621</v>
+        <v>1715.29975253331</v>
       </c>
       <c r="Y20" t="n">
-        <v>2183.928166309274</v>
+        <v>1715.29975253331</v>
       </c>
     </row>
     <row r="21">
@@ -5828,28 +5828,28 @@
         <v>60.12580242351726</v>
       </c>
       <c r="I21" t="n">
-        <v>86.25132408734105</v>
+        <v>112.3149972477986</v>
       </c>
       <c r="J21" t="n">
-        <v>157.9417523880326</v>
+        <v>508.5637505147025</v>
       </c>
       <c r="K21" t="n">
-        <v>280.472113037332</v>
+        <v>673.7775884730677</v>
       </c>
       <c r="L21" t="n">
-        <v>445.2293041160067</v>
+        <v>838.5347795517423</v>
       </c>
       <c r="M21" t="n">
-        <v>637.4931750101596</v>
+        <v>1030.798650445895</v>
       </c>
       <c r="N21" t="n">
-        <v>834.8456984678777</v>
+        <v>1228.151173903613</v>
       </c>
       <c r="O21" t="n">
-        <v>1015.384701486661</v>
+        <v>1408.690176922396</v>
       </c>
       <c r="P21" t="n">
-        <v>1160.283168008898</v>
+        <v>1553.588643444633</v>
       </c>
       <c r="Q21" t="n">
         <v>1650.449431024751</v>
@@ -5910,25 +5910,25 @@
         <v>60.12580242351726</v>
       </c>
       <c r="J22" t="n">
-        <v>105.1020732595476</v>
+        <v>105.1020732595475</v>
       </c>
       <c r="K22" t="n">
-        <v>399.772709694224</v>
+        <v>231.5799348298918</v>
       </c>
       <c r="L22" t="n">
-        <v>912.5617265081461</v>
+        <v>744.3689516438141</v>
       </c>
       <c r="M22" t="n">
-        <v>1471.766030621767</v>
+        <v>1303.573255757435</v>
       </c>
       <c r="N22" t="n">
-        <v>2011.374141607996</v>
+        <v>1843.181366743664</v>
       </c>
       <c r="O22" t="n">
-        <v>2520.961233055534</v>
+        <v>2352.768458191201</v>
       </c>
       <c r="P22" t="n">
-        <v>2945.408374833841</v>
+        <v>2777.215599969509</v>
       </c>
       <c r="Q22" t="n">
         <v>2998.677814292588</v>
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2511.072174364379</v>
+        <v>2511.072174364378</v>
       </c>
       <c r="C23" t="n">
         <v>2072.929701547802</v>
       </c>
       <c r="D23" t="n">
-        <v>1637.019916722247</v>
+        <v>1637.019916722246</v>
       </c>
       <c r="E23" t="n">
-        <v>1203.245171880542</v>
+        <v>1203.245171880541</v>
       </c>
       <c r="F23" t="n">
-        <v>775.3777422897497</v>
+        <v>775.3777422897496</v>
       </c>
       <c r="G23" t="n">
         <v>375.4269081469535</v>
@@ -5986,28 +5986,28 @@
         <v>101.1158140122575</v>
       </c>
       <c r="I23" t="n">
-        <v>155.3825509282454</v>
+        <v>155.3825509282453</v>
       </c>
       <c r="J23" t="n">
-        <v>275.7506719908251</v>
+        <v>711.0053594437429</v>
       </c>
       <c r="K23" t="n">
-        <v>456.1512832471221</v>
+        <v>1725.756262658218</v>
       </c>
       <c r="L23" t="n">
-        <v>1707.459481648809</v>
+        <v>1949.559173034901</v>
       </c>
       <c r="M23" t="n">
-        <v>2958.767680050496</v>
+        <v>2198.583033033189</v>
       </c>
       <c r="N23" t="n">
-        <v>4201.510345991315</v>
+        <v>2451.636359432679</v>
       </c>
       <c r="O23" t="n">
-        <v>4440.46142636284</v>
+        <v>3065.65276557085</v>
       </c>
       <c r="P23" t="n">
-        <v>4644.400645131309</v>
+        <v>4097.901859172714</v>
       </c>
       <c r="Q23" t="n">
         <v>4797.550505169267</v>
@@ -6022,19 +6022,19 @@
         <v>4791.379279529731</v>
       </c>
       <c r="U23" t="n">
-        <v>4532.272736625464</v>
+        <v>4532.272736625462</v>
       </c>
       <c r="V23" t="n">
-        <v>4169.65578655929</v>
+        <v>4169.655786559289</v>
       </c>
       <c r="W23" t="n">
-        <v>3764.800331970324</v>
+        <v>3764.800331970322</v>
       </c>
       <c r="X23" t="n">
-        <v>3345.657868549635</v>
+        <v>3345.657868549633</v>
       </c>
       <c r="Y23" t="n">
-        <v>2937.371744849287</v>
+        <v>2937.371744849286</v>
       </c>
     </row>
     <row r="24">
@@ -6065,28 +6065,28 @@
         <v>101.1158140122575</v>
       </c>
       <c r="I24" t="n">
-        <v>127.2413356760813</v>
+        <v>153.3050088365389</v>
       </c>
       <c r="J24" t="n">
-        <v>198.9317639767728</v>
+        <v>549.5537621034428</v>
       </c>
       <c r="K24" t="n">
-        <v>321.4621246260722</v>
+        <v>714.7676000618079</v>
       </c>
       <c r="L24" t="n">
-        <v>486.219315704747</v>
+        <v>879.5247911404825</v>
       </c>
       <c r="M24" t="n">
-        <v>678.4831865988999</v>
+        <v>1071.788662034635</v>
       </c>
       <c r="N24" t="n">
-        <v>875.8357100566179</v>
+        <v>1269.141185492353</v>
       </c>
       <c r="O24" t="n">
-        <v>1056.374713075401</v>
+        <v>1449.680188511137</v>
       </c>
       <c r="P24" t="n">
-        <v>1201.273179597638</v>
+        <v>1594.578655033373</v>
       </c>
       <c r="Q24" t="n">
         <v>1691.439442613492</v>
@@ -6150,13 +6150,13 @@
         <v>146.0920848482878</v>
       </c>
       <c r="K25" t="n">
-        <v>440.7627212829642</v>
+        <v>440.7627212829649</v>
       </c>
       <c r="L25" t="n">
-        <v>953.5517380968863</v>
+        <v>953.551738096887</v>
       </c>
       <c r="M25" t="n">
-        <v>1512.756042210507</v>
+        <v>1512.756042210508</v>
       </c>
       <c r="N25" t="n">
         <v>2052.364153196736</v>
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2511.072174364379</v>
+        <v>2511.072174364378</v>
       </c>
       <c r="C26" t="n">
         <v>2072.929701547802</v>
       </c>
       <c r="D26" t="n">
-        <v>1637.019916722247</v>
+        <v>1637.019916722246</v>
       </c>
       <c r="E26" t="n">
-        <v>1203.245171880542</v>
+        <v>1203.245171880541</v>
       </c>
       <c r="F26" t="n">
-        <v>775.3777422897496</v>
+        <v>775.3777422897492</v>
       </c>
       <c r="G26" t="n">
         <v>375.4269081469534</v>
@@ -6226,52 +6226,52 @@
         <v>155.3825509282453</v>
       </c>
       <c r="J26" t="n">
-        <v>275.7506719908251</v>
+        <v>711.0053594437429</v>
       </c>
       <c r="K26" t="n">
-        <v>1289.795986607611</v>
+        <v>1725.756262658218</v>
       </c>
       <c r="L26" t="n">
-        <v>1513.598896984295</v>
+        <v>2324.624498801545</v>
       </c>
       <c r="M26" t="n">
-        <v>1762.622756982583</v>
+        <v>2573.648358799833</v>
       </c>
       <c r="N26" t="n">
-        <v>2015.676083382074</v>
+        <v>2826.701685199323</v>
       </c>
       <c r="O26" t="n">
-        <v>3234.806830323905</v>
+        <v>3065.652765570849</v>
       </c>
       <c r="P26" t="n">
-        <v>4267.05592392577</v>
+        <v>4097.901859172714</v>
       </c>
       <c r="Q26" t="n">
-        <v>4966.704569922323</v>
+        <v>4797.550505169266</v>
       </c>
       <c r="R26" t="n">
         <v>5055.790700612875</v>
       </c>
       <c r="S26" t="n">
-        <v>5005.112276265119</v>
+        <v>5005.112276265118</v>
       </c>
       <c r="T26" t="n">
-        <v>4791.379279529731</v>
+        <v>4791.37927952973</v>
       </c>
       <c r="U26" t="n">
-        <v>4532.272736625463</v>
+        <v>4532.272736625462</v>
       </c>
       <c r="V26" t="n">
         <v>4169.655786559289</v>
       </c>
       <c r="W26" t="n">
-        <v>3764.800331970323</v>
+        <v>3764.800331970322</v>
       </c>
       <c r="X26" t="n">
         <v>3345.657868549633</v>
       </c>
       <c r="Y26" t="n">
-        <v>2937.371744849287</v>
+        <v>2937.371744849286</v>
       </c>
     </row>
     <row r="27">
@@ -6293,7 +6293,7 @@
         <v>303.36892671445</v>
       </c>
       <c r="F27" t="n">
-        <v>219.9850883306116</v>
+        <v>219.9850883306117</v>
       </c>
       <c r="G27" t="n">
         <v>135.3742103715399</v>
@@ -6308,16 +6308,16 @@
         <v>198.9317639767728</v>
       </c>
       <c r="K27" t="n">
-        <v>321.4621246260722</v>
+        <v>321.4621246260721</v>
       </c>
       <c r="L27" t="n">
-        <v>486.219315704747</v>
+        <v>486.2193157047468</v>
       </c>
       <c r="M27" t="n">
-        <v>678.4831865988999</v>
+        <v>678.4831865988997</v>
       </c>
       <c r="N27" t="n">
-        <v>875.8357100566179</v>
+        <v>875.8357100566177</v>
       </c>
       <c r="O27" t="n">
         <v>1056.374713075401</v>
@@ -6384,13 +6384,13 @@
         <v>101.1158140122575</v>
       </c>
       <c r="J28" t="n">
-        <v>146.0920848482878</v>
+        <v>232.6717700129776</v>
       </c>
       <c r="K28" t="n">
-        <v>272.5699464186318</v>
+        <v>581.3400537321737</v>
       </c>
       <c r="L28" t="n">
-        <v>785.3589632325541</v>
+        <v>785.3589632325543</v>
       </c>
       <c r="M28" t="n">
         <v>1344.563267346175</v>
@@ -6442,7 +6442,7 @@
         <v>2511.072174364379</v>
       </c>
       <c r="C29" t="n">
-        <v>2072.929701547803</v>
+        <v>2072.929701547802</v>
       </c>
       <c r="D29" t="n">
         <v>1637.019916722247</v>
@@ -6451,7 +6451,7 @@
         <v>1203.245171880542</v>
       </c>
       <c r="F29" t="n">
-        <v>775.3777422897501</v>
+        <v>775.3777422897496</v>
       </c>
       <c r="G29" t="n">
         <v>375.4269081469534</v>
@@ -6463,25 +6463,25 @@
         <v>155.3825509282453</v>
       </c>
       <c r="J29" t="n">
-        <v>275.7506719908251</v>
+        <v>711.0053594437429</v>
       </c>
       <c r="K29" t="n">
-        <v>456.151283247122</v>
+        <v>1725.756262658218</v>
       </c>
       <c r="L29" t="n">
-        <v>1707.459481648809</v>
+        <v>2172.754707064635</v>
       </c>
       <c r="M29" t="n">
-        <v>2958.767680050496</v>
+        <v>2421.778567062923</v>
       </c>
       <c r="N29" t="n">
-        <v>4201.510345991314</v>
+        <v>2674.831893462414</v>
       </c>
       <c r="O29" t="n">
-        <v>4440.461426362839</v>
+        <v>3893.962640404245</v>
       </c>
       <c r="P29" t="n">
-        <v>4644.400645131308</v>
+        <v>4097.901859172714</v>
       </c>
       <c r="Q29" t="n">
         <v>4797.550505169266</v>
@@ -6490,13 +6490,13 @@
         <v>5055.790700612875</v>
       </c>
       <c r="S29" t="n">
-        <v>5005.11227626512</v>
+        <v>5005.112276265119</v>
       </c>
       <c r="T29" t="n">
-        <v>4791.379279529731</v>
+        <v>4791.37927952973</v>
       </c>
       <c r="U29" t="n">
-        <v>4532.272736625463</v>
+        <v>4532.272736625462</v>
       </c>
       <c r="V29" t="n">
         <v>4169.655786559289</v>
@@ -6505,7 +6505,7 @@
         <v>3764.800331970323</v>
       </c>
       <c r="X29" t="n">
-        <v>3345.657868549634</v>
+        <v>3345.657868549633</v>
       </c>
       <c r="Y29" t="n">
         <v>2937.371744849287</v>
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3916.274880018578</v>
+        <v>599.0360914043008</v>
       </c>
       <c r="C30" t="n">
-        <v>3809.81841885522</v>
+        <v>492.5796302409431</v>
       </c>
       <c r="D30" t="n">
-        <v>3714.728130001773</v>
+        <v>397.4893413874963</v>
       </c>
       <c r="E30" t="n">
-        <v>3620.607715328727</v>
+        <v>303.36892671445</v>
       </c>
       <c r="F30" t="n">
-        <v>3537.223876944889</v>
+        <v>219.9850883306117</v>
       </c>
       <c r="G30" t="n">
-        <v>3452.612998985817</v>
+        <v>135.3742103715399</v>
       </c>
       <c r="H30" t="n">
-        <v>3418.354602626535</v>
+        <v>101.1158140122575</v>
       </c>
       <c r="I30" t="n">
-        <v>3444.480124290359</v>
+        <v>153.3050088365389</v>
       </c>
       <c r="J30" t="n">
-        <v>3516.17055259105</v>
+        <v>549.5537621034428</v>
       </c>
       <c r="K30" t="n">
-        <v>3638.70091324035</v>
+        <v>714.7676000618079</v>
       </c>
       <c r="L30" t="n">
-        <v>3803.458104319025</v>
+        <v>879.5247911404825</v>
       </c>
       <c r="M30" t="n">
-        <v>3995.721975213177</v>
+        <v>1071.788662034635</v>
       </c>
       <c r="N30" t="n">
-        <v>4193.074498670896</v>
+        <v>1269.141185492353</v>
       </c>
       <c r="O30" t="n">
-        <v>4373.613501689679</v>
+        <v>1449.680188511137</v>
       </c>
       <c r="P30" t="n">
-        <v>4518.511968211916</v>
+        <v>1594.578655033373</v>
       </c>
       <c r="Q30" t="n">
-        <v>5008.678231227768</v>
+        <v>1691.439442613492</v>
       </c>
       <c r="R30" t="n">
-        <v>5055.790700612875</v>
+        <v>1738.551911998599</v>
       </c>
       <c r="S30" t="n">
-        <v>5006.715907210568</v>
+        <v>1689.477118596291</v>
       </c>
       <c r="T30" t="n">
-        <v>4879.657880299898</v>
+        <v>1562.419091685621</v>
       </c>
       <c r="U30" t="n">
-        <v>4703.372268285048</v>
+        <v>1386.13347967077</v>
       </c>
       <c r="V30" t="n">
-        <v>4504.254750347047</v>
+        <v>1187.015961732769</v>
       </c>
       <c r="W30" t="n">
-        <v>4318.93199608024</v>
+        <v>1001.693207465963</v>
       </c>
       <c r="X30" t="n">
-        <v>4164.064560319121</v>
+        <v>846.8257717048432</v>
       </c>
       <c r="Y30" t="n">
-        <v>4037.578781098342</v>
+        <v>720.3399924840639</v>
       </c>
     </row>
     <row r="31">
@@ -6621,25 +6621,25 @@
         <v>101.1158140122575</v>
       </c>
       <c r="J31" t="n">
-        <v>146.0920848482878</v>
+        <v>232.6717700129776</v>
       </c>
       <c r="K31" t="n">
-        <v>440.7627212829642</v>
+        <v>581.3400537321737</v>
       </c>
       <c r="L31" t="n">
-        <v>953.5517380968863</v>
+        <v>1094.129070546096</v>
       </c>
       <c r="M31" t="n">
-        <v>1512.756042210507</v>
+        <v>1344.563267346175</v>
       </c>
       <c r="N31" t="n">
-        <v>2052.364153196736</v>
+        <v>1884.171378332404</v>
       </c>
       <c r="O31" t="n">
-        <v>2561.951244644274</v>
+        <v>2393.758469779942</v>
       </c>
       <c r="P31" t="n">
-        <v>2986.398386422581</v>
+        <v>2818.205611558249</v>
       </c>
       <c r="Q31" t="n">
         <v>3039.667825881328</v>
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2511.072174364378</v>
+        <v>2511.072174364379</v>
       </c>
       <c r="C32" t="n">
         <v>2072.929701547802</v>
       </c>
       <c r="D32" t="n">
-        <v>1637.019916722246</v>
+        <v>1637.019916722247</v>
       </c>
       <c r="E32" t="n">
-        <v>1203.245171880541</v>
+        <v>1203.245171880542</v>
       </c>
       <c r="F32" t="n">
-        <v>775.3777422897492</v>
+        <v>775.3777422897496</v>
       </c>
       <c r="G32" t="n">
         <v>375.4269081469534</v>
@@ -6700,28 +6700,28 @@
         <v>155.3825509282453</v>
       </c>
       <c r="J32" t="n">
-        <v>711.005359443743</v>
+        <v>275.750671990825</v>
       </c>
       <c r="K32" t="n">
-        <v>891.40597070004</v>
+        <v>1290.5015752053</v>
       </c>
       <c r="L32" t="n">
-        <v>1698.893949187941</v>
+        <v>1514.304485581983</v>
       </c>
       <c r="M32" t="n">
-        <v>2950.202147589628</v>
+        <v>1763.328345580271</v>
       </c>
       <c r="N32" t="n">
-        <v>4201.510345991314</v>
+        <v>2016.381671979762</v>
       </c>
       <c r="O32" t="n">
-        <v>4440.461426362839</v>
+        <v>3235.512418921593</v>
       </c>
       <c r="P32" t="n">
-        <v>4644.400645131308</v>
+        <v>4267.761512523458</v>
       </c>
       <c r="Q32" t="n">
-        <v>4797.550505169266</v>
+        <v>4966.704569922323</v>
       </c>
       <c r="R32" t="n">
         <v>5055.790700612875</v>
@@ -6739,13 +6739,13 @@
         <v>4169.655786559289</v>
       </c>
       <c r="W32" t="n">
-        <v>3764.800331970322</v>
+        <v>3764.800331970323</v>
       </c>
       <c r="X32" t="n">
         <v>3345.657868549633</v>
       </c>
       <c r="Y32" t="n">
-        <v>2937.371744849286</v>
+        <v>2937.371744849287</v>
       </c>
     </row>
     <row r="33">
@@ -6767,7 +6767,7 @@
         <v>303.36892671445</v>
       </c>
       <c r="F33" t="n">
-        <v>219.9850883306116</v>
+        <v>219.9850883306117</v>
       </c>
       <c r="G33" t="n">
         <v>135.3742103715399</v>
@@ -6776,28 +6776,28 @@
         <v>101.1158140122575</v>
       </c>
       <c r="I33" t="n">
-        <v>127.2413356760813</v>
+        <v>153.3050088365389</v>
       </c>
       <c r="J33" t="n">
-        <v>198.9317639767728</v>
+        <v>549.5537621034428</v>
       </c>
       <c r="K33" t="n">
-        <v>321.4621246260722</v>
+        <v>714.7676000618079</v>
       </c>
       <c r="L33" t="n">
-        <v>486.219315704747</v>
+        <v>879.5247911404825</v>
       </c>
       <c r="M33" t="n">
-        <v>678.4831865988999</v>
+        <v>1071.788662034635</v>
       </c>
       <c r="N33" t="n">
-        <v>875.8357100566179</v>
+        <v>1269.141185492353</v>
       </c>
       <c r="O33" t="n">
-        <v>1056.374713075401</v>
+        <v>1449.680188511137</v>
       </c>
       <c r="P33" t="n">
-        <v>1201.273179597638</v>
+        <v>1594.578655033373</v>
       </c>
       <c r="Q33" t="n">
         <v>1691.439442613492</v>
@@ -6858,25 +6858,25 @@
         <v>101.1158140122575</v>
       </c>
       <c r="J34" t="n">
-        <v>146.0920848482878</v>
+        <v>232.6717700129776</v>
       </c>
       <c r="K34" t="n">
-        <v>440.7627212829642</v>
+        <v>581.3400537321737</v>
       </c>
       <c r="L34" t="n">
-        <v>953.5517380968863</v>
+        <v>785.3589632325543</v>
       </c>
       <c r="M34" t="n">
-        <v>1512.756042210507</v>
+        <v>1344.563267346175</v>
       </c>
       <c r="N34" t="n">
-        <v>2052.364153196736</v>
+        <v>1884.171378332404</v>
       </c>
       <c r="O34" t="n">
-        <v>2561.951244644274</v>
+        <v>2393.758469779942</v>
       </c>
       <c r="P34" t="n">
-        <v>2986.398386422581</v>
+        <v>2818.205611558249</v>
       </c>
       <c r="Q34" t="n">
         <v>3039.667825881328</v>
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1162.255160291802</v>
+        <v>1631.988855816266</v>
       </c>
       <c r="C35" t="n">
-        <v>1162.255160291802</v>
+        <v>1631.988855816266</v>
       </c>
       <c r="D35" t="n">
-        <v>1162.255160291802</v>
+        <v>1196.07907099071</v>
       </c>
       <c r="E35" t="n">
-        <v>1162.255160291802</v>
+        <v>762.3043261490054</v>
       </c>
       <c r="F35" t="n">
-        <v>734.3877307010093</v>
+        <v>334.4368965582132</v>
       </c>
       <c r="G35" t="n">
         <v>334.4368965582132</v>
@@ -6937,22 +6937,22 @@
         <v>114.3925393395051</v>
       </c>
       <c r="J35" t="n">
-        <v>670.0153478550028</v>
+        <v>670.0153478550027</v>
       </c>
       <c r="K35" t="n">
-        <v>879.630883821244</v>
+        <v>850.4159591112995</v>
       </c>
       <c r="L35" t="n">
-        <v>1103.433794197928</v>
+        <v>1074.218869487983</v>
       </c>
       <c r="M35" t="n">
-        <v>1352.457654196216</v>
+        <v>1323.242729486271</v>
       </c>
       <c r="N35" t="n">
-        <v>1605.510980595707</v>
+        <v>1576.296055885762</v>
       </c>
       <c r="O35" t="n">
-        <v>1844.462060967232</v>
+        <v>1815.247136257287</v>
       </c>
       <c r="P35" t="n">
         <v>2048.4012797357</v>
@@ -6973,16 +6973,16 @@
         <v>2696.505153923839</v>
       </c>
       <c r="V35" t="n">
-        <v>2333.888203857666</v>
+        <v>2696.505153923839</v>
       </c>
       <c r="W35" t="n">
-        <v>2333.888203857666</v>
+        <v>2696.505153923839</v>
       </c>
       <c r="X35" t="n">
-        <v>1996.840854477056</v>
+        <v>2277.36269050315</v>
       </c>
       <c r="Y35" t="n">
-        <v>1588.554730776709</v>
+        <v>1869.076566802803</v>
       </c>
     </row>
     <row r="36">
@@ -7013,28 +7013,28 @@
         <v>60.12580242351726</v>
       </c>
       <c r="I36" t="n">
-        <v>86.25132408734105</v>
+        <v>112.3149972477986</v>
       </c>
       <c r="J36" t="n">
-        <v>157.9417523880326</v>
+        <v>508.5637505147025</v>
       </c>
       <c r="K36" t="n">
-        <v>280.472113037332</v>
+        <v>673.7775884730677</v>
       </c>
       <c r="L36" t="n">
-        <v>445.2293041160067</v>
+        <v>838.5347795517423</v>
       </c>
       <c r="M36" t="n">
-        <v>637.4931750101596</v>
+        <v>1030.798650445895</v>
       </c>
       <c r="N36" t="n">
-        <v>834.8456984678777</v>
+        <v>1228.151173903613</v>
       </c>
       <c r="O36" t="n">
-        <v>1015.384701486661</v>
+        <v>1408.690176922396</v>
       </c>
       <c r="P36" t="n">
-        <v>1160.283168008898</v>
+        <v>1553.588643444633</v>
       </c>
       <c r="Q36" t="n">
         <v>1650.449431024751</v>
@@ -7095,25 +7095,25 @@
         <v>60.12580242351726</v>
       </c>
       <c r="J37" t="n">
-        <v>105.1020732595476</v>
+        <v>191.6817584242374</v>
       </c>
       <c r="K37" t="n">
-        <v>399.772709694224</v>
+        <v>540.3500421434335</v>
       </c>
       <c r="L37" t="n">
-        <v>912.5617265081461</v>
+        <v>1053.139058957355</v>
       </c>
       <c r="M37" t="n">
-        <v>1471.766030621767</v>
+        <v>1612.343363070976</v>
       </c>
       <c r="N37" t="n">
-        <v>2011.374141607996</v>
+        <v>2151.951474057205</v>
       </c>
       <c r="O37" t="n">
-        <v>2520.961233055534</v>
+        <v>2661.538565504743</v>
       </c>
       <c r="P37" t="n">
-        <v>2945.408374833841</v>
+        <v>2777.215599969509</v>
       </c>
       <c r="Q37" t="n">
         <v>2998.677814292588</v>
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1604.07226036827</v>
+        <v>1292.726620001241</v>
       </c>
       <c r="C38" t="n">
-        <v>1604.07226036827</v>
+        <v>1292.726620001241</v>
       </c>
       <c r="D38" t="n">
-        <v>1168.162475542714</v>
+        <v>856.8168351756854</v>
       </c>
       <c r="E38" t="n">
         <v>734.3877307010093</v>
@@ -7174,22 +7174,22 @@
         <v>114.3925393395051</v>
       </c>
       <c r="J38" t="n">
-        <v>670.0153478550028</v>
+        <v>670.0153478550027</v>
       </c>
       <c r="K38" t="n">
-        <v>850.4159591112997</v>
+        <v>850.4159591112995</v>
       </c>
       <c r="L38" t="n">
-        <v>1074.218869487984</v>
+        <v>1074.218869487983</v>
       </c>
       <c r="M38" t="n">
-        <v>1352.457654196216</v>
+        <v>1323.242729486271</v>
       </c>
       <c r="N38" t="n">
-        <v>1605.510980595707</v>
+        <v>1576.296055885762</v>
       </c>
       <c r="O38" t="n">
-        <v>1844.462060967232</v>
+        <v>1815.247136257287</v>
       </c>
       <c r="P38" t="n">
         <v>2048.4012797357</v>
@@ -7201,25 +7201,25 @@
         <v>3006.290121175863</v>
       </c>
       <c r="S38" t="n">
-        <v>3006.290121175863</v>
+        <v>2955.611696828107</v>
       </c>
       <c r="T38" t="n">
-        <v>2792.557124440474</v>
+        <v>2741.878700092718</v>
       </c>
       <c r="U38" t="n">
-        <v>2533.450581536206</v>
+        <v>2482.77215718845</v>
       </c>
       <c r="V38" t="n">
-        <v>2533.450581536206</v>
+        <v>2120.155207122277</v>
       </c>
       <c r="W38" t="n">
-        <v>2533.450581536206</v>
+        <v>2120.155207122277</v>
       </c>
       <c r="X38" t="n">
-        <v>2438.657954553524</v>
+        <v>1701.012743701588</v>
       </c>
       <c r="Y38" t="n">
-        <v>2030.371830853177</v>
+        <v>1292.726620001241</v>
       </c>
     </row>
     <row r="39">
@@ -7250,28 +7250,28 @@
         <v>60.12580242351726</v>
       </c>
       <c r="I39" t="n">
-        <v>86.25132408734105</v>
+        <v>112.3149972477986</v>
       </c>
       <c r="J39" t="n">
-        <v>157.9417523880326</v>
+        <v>508.5637505147025</v>
       </c>
       <c r="K39" t="n">
-        <v>280.472113037332</v>
+        <v>673.7775884730677</v>
       </c>
       <c r="L39" t="n">
-        <v>445.2293041160067</v>
+        <v>838.5347795517423</v>
       </c>
       <c r="M39" t="n">
-        <v>637.4931750101596</v>
+        <v>1030.798650445895</v>
       </c>
       <c r="N39" t="n">
-        <v>834.8456984678777</v>
+        <v>1228.151173903613</v>
       </c>
       <c r="O39" t="n">
-        <v>1015.384701486661</v>
+        <v>1408.690176922396</v>
       </c>
       <c r="P39" t="n">
-        <v>1160.283168008898</v>
+        <v>1553.588643444633</v>
       </c>
       <c r="Q39" t="n">
         <v>1650.449431024751</v>
@@ -7332,25 +7332,25 @@
         <v>60.12580242351726</v>
       </c>
       <c r="J40" t="n">
-        <v>191.6817584242374</v>
+        <v>105.1020732595475</v>
       </c>
       <c r="K40" t="n">
-        <v>265.591587572298</v>
+        <v>399.7727096942242</v>
       </c>
       <c r="L40" t="n">
-        <v>744.3689516438138</v>
+        <v>912.5617265081463</v>
       </c>
       <c r="M40" t="n">
-        <v>1303.573255757435</v>
+        <v>1471.766030621767</v>
       </c>
       <c r="N40" t="n">
-        <v>1843.181366743664</v>
+        <v>2011.374141607996</v>
       </c>
       <c r="O40" t="n">
-        <v>2352.768458191201</v>
+        <v>2520.961233055534</v>
       </c>
       <c r="P40" t="n">
-        <v>2777.215599969509</v>
+        <v>2945.408374833841</v>
       </c>
       <c r="Q40" t="n">
         <v>2998.677814292588</v>
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1616.798596084987</v>
+        <v>921.7679768560143</v>
       </c>
       <c r="C41" t="n">
-        <v>1616.798596084987</v>
+        <v>921.7679768560143</v>
       </c>
       <c r="D41" t="n">
-        <v>1596.029905133506</v>
+        <v>921.7679768560143</v>
       </c>
       <c r="E41" t="n">
-        <v>1162.255160291802</v>
+        <v>487.9932320143095</v>
       </c>
       <c r="F41" t="n">
-        <v>734.3877307010093</v>
+        <v>60.12580242351726</v>
       </c>
       <c r="G41" t="n">
-        <v>334.4368965582132</v>
+        <v>60.12580242351726</v>
       </c>
       <c r="H41" t="n">
         <v>60.12580242351726</v>
@@ -7411,22 +7411,22 @@
         <v>114.3925393395051</v>
       </c>
       <c r="J41" t="n">
-        <v>670.0153478550028</v>
+        <v>670.0153478550027</v>
       </c>
       <c r="K41" t="n">
-        <v>850.4159591112997</v>
+        <v>850.4159591112995</v>
       </c>
       <c r="L41" t="n">
-        <v>1074.218869487984</v>
+        <v>1074.218869487983</v>
       </c>
       <c r="M41" t="n">
-        <v>1323.242729486272</v>
+        <v>1323.242729486271</v>
       </c>
       <c r="N41" t="n">
         <v>1576.296055885762</v>
       </c>
       <c r="O41" t="n">
-        <v>1815.247136257288</v>
+        <v>1815.247136257287</v>
       </c>
       <c r="P41" t="n">
         <v>2048.4012797357</v>
@@ -7438,25 +7438,25 @@
         <v>3006.290121175863</v>
       </c>
       <c r="S41" t="n">
-        <v>3006.290121175863</v>
+        <v>2955.611696828107</v>
       </c>
       <c r="T41" t="n">
-        <v>2792.557124440474</v>
+        <v>2775.775511536458</v>
       </c>
       <c r="U41" t="n">
-        <v>2792.557124440474</v>
+        <v>2516.668968632191</v>
       </c>
       <c r="V41" t="n">
-        <v>2429.9401743743</v>
+        <v>2154.052018566017</v>
       </c>
       <c r="W41" t="n">
-        <v>2025.084719785333</v>
+        <v>1749.19656397705</v>
       </c>
       <c r="X41" t="n">
-        <v>2025.084719785333</v>
+        <v>1330.054100556361</v>
       </c>
       <c r="Y41" t="n">
-        <v>1616.798596084987</v>
+        <v>921.7679768560143</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>60.12580242351726</v>
       </c>
       <c r="I42" t="n">
-        <v>86.25132408734105</v>
+        <v>112.3149972477986</v>
       </c>
       <c r="J42" t="n">
-        <v>434.0744497294277</v>
+        <v>508.5637505147025</v>
       </c>
       <c r="K42" t="n">
-        <v>556.6048103787272</v>
+        <v>673.7775884730677</v>
       </c>
       <c r="L42" t="n">
-        <v>721.3620014574019</v>
+        <v>838.5347795517423</v>
       </c>
       <c r="M42" t="n">
-        <v>913.6258723515548</v>
+        <v>1030.798650445895</v>
       </c>
       <c r="N42" t="n">
-        <v>1110.978395809273</v>
+        <v>1228.151173903613</v>
       </c>
       <c r="O42" t="n">
-        <v>1291.517398828056</v>
+        <v>1408.690176922396</v>
       </c>
       <c r="P42" t="n">
-        <v>1436.415865350293</v>
+        <v>1553.588643444633</v>
       </c>
       <c r="Q42" t="n">
-        <v>1533.276652930412</v>
+        <v>1650.449431024751</v>
       </c>
       <c r="R42" t="n">
         <v>1697.561900409858</v>
@@ -7554,13 +7554,13 @@
         <v>774.8049356004813</v>
       </c>
       <c r="E43" t="n">
-        <v>605.0469318512187</v>
+        <v>605.0469318512182</v>
       </c>
       <c r="F43" t="n">
-        <v>428.3398778129747</v>
+        <v>428.3398778129745</v>
       </c>
       <c r="G43" t="n">
-        <v>263.3976759832894</v>
+        <v>263.397675983289</v>
       </c>
       <c r="H43" t="n">
         <v>129.2663519946448</v>
@@ -7569,13 +7569,13 @@
         <v>60.12580242351726</v>
       </c>
       <c r="J43" t="n">
-        <v>105.1020732595476</v>
+        <v>105.1020732595475</v>
       </c>
       <c r="K43" t="n">
-        <v>399.772709694224</v>
+        <v>399.7727096942242</v>
       </c>
       <c r="L43" t="n">
-        <v>912.5617265081461</v>
+        <v>912.5617265081463</v>
       </c>
       <c r="M43" t="n">
         <v>1471.766030621767</v>
@@ -7599,7 +7599,7 @@
         <v>2858.360327182776</v>
       </c>
       <c r="T43" t="n">
-        <v>2615.254193287674</v>
+        <v>2615.254193287673</v>
       </c>
       <c r="U43" t="n">
         <v>2336.856596530478</v>
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1152.282586495418</v>
+        <v>1548.10672495267</v>
       </c>
       <c r="C44" t="n">
-        <v>714.1401136788418</v>
+        <v>1162.255160291802</v>
       </c>
       <c r="D44" t="n">
-        <v>714.1401136788418</v>
+        <v>1162.255160291802</v>
       </c>
       <c r="E44" t="n">
-        <v>714.1401136788418</v>
+        <v>1162.255160291802</v>
       </c>
       <c r="F44" t="n">
-        <v>714.1401136788418</v>
+        <v>734.3877307010093</v>
       </c>
       <c r="G44" t="n">
         <v>334.4368965582132</v>
@@ -7648,25 +7648,25 @@
         <v>114.3925393395051</v>
       </c>
       <c r="J44" t="n">
-        <v>670.0153478550028</v>
+        <v>670.0153478550027</v>
       </c>
       <c r="K44" t="n">
-        <v>931.096724787101</v>
+        <v>879.630883821245</v>
       </c>
       <c r="L44" t="n">
-        <v>1154.899635163785</v>
+        <v>1103.433794197929</v>
       </c>
       <c r="M44" t="n">
-        <v>1898.956440154811</v>
+        <v>1352.457654196217</v>
       </c>
       <c r="N44" t="n">
-        <v>2152.009766554301</v>
+        <v>1605.510980595707</v>
       </c>
       <c r="O44" t="n">
-        <v>2390.960846925826</v>
+        <v>1844.462060967232</v>
       </c>
       <c r="P44" t="n">
-        <v>2594.900065694295</v>
+        <v>2048.4012797357</v>
       </c>
       <c r="Q44" t="n">
         <v>2748.049925732253</v>
@@ -7675,25 +7675,25 @@
         <v>3006.290121175863</v>
       </c>
       <c r="S44" t="n">
-        <v>3006.290121175863</v>
+        <v>2955.611696828107</v>
       </c>
       <c r="T44" t="n">
-        <v>3006.290121175863</v>
+        <v>2741.878700092718</v>
       </c>
       <c r="U44" t="n">
-        <v>2747.183578271595</v>
+        <v>2741.878700092718</v>
       </c>
       <c r="V44" t="n">
-        <v>2384.566628205421</v>
+        <v>2379.261750026545</v>
       </c>
       <c r="W44" t="n">
-        <v>1979.711173616455</v>
+        <v>1974.406295437578</v>
       </c>
       <c r="X44" t="n">
-        <v>1560.568710195765</v>
+        <v>1974.406295437578</v>
       </c>
       <c r="Y44" t="n">
-        <v>1152.282586495418</v>
+        <v>1974.406295437578</v>
       </c>
     </row>
     <row r="45">
@@ -7724,31 +7724,31 @@
         <v>60.12580242351726</v>
       </c>
       <c r="I45" t="n">
-        <v>86.25132408734105</v>
+        <v>112.3149972477986</v>
       </c>
       <c r="J45" t="n">
-        <v>434.0744497294277</v>
+        <v>508.5637505147025</v>
       </c>
       <c r="K45" t="n">
-        <v>556.6048103787272</v>
+        <v>673.7775884730677</v>
       </c>
       <c r="L45" t="n">
-        <v>721.3620014574019</v>
+        <v>838.5347795517423</v>
       </c>
       <c r="M45" t="n">
-        <v>913.6258723515548</v>
+        <v>1030.798650445895</v>
       </c>
       <c r="N45" t="n">
-        <v>1110.978395809273</v>
+        <v>1228.151173903613</v>
       </c>
       <c r="O45" t="n">
-        <v>1291.517398828056</v>
+        <v>1408.690176922396</v>
       </c>
       <c r="P45" t="n">
-        <v>1436.415865350293</v>
+        <v>1553.588643444633</v>
       </c>
       <c r="Q45" t="n">
-        <v>1533.276652930412</v>
+        <v>1650.449431024751</v>
       </c>
       <c r="R45" t="n">
         <v>1697.561900409858</v>
@@ -7782,49 +7782,49 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1113.244639915734</v>
+        <v>1113.244639915735</v>
       </c>
       <c r="C46" t="n">
-        <v>940.682928398959</v>
+        <v>940.6829283989596</v>
       </c>
       <c r="D46" t="n">
-        <v>774.8049356004817</v>
+        <v>774.8049356004822</v>
       </c>
       <c r="E46" t="n">
-        <v>605.0469318512189</v>
+        <v>605.0469318512191</v>
       </c>
       <c r="F46" t="n">
-        <v>428.3398778129751</v>
+        <v>428.3398778129754</v>
       </c>
       <c r="G46" t="n">
         <v>263.3976759832894</v>
       </c>
       <c r="H46" t="n">
-        <v>129.2663519946448</v>
+        <v>129.2663519946445</v>
       </c>
       <c r="I46" t="n">
         <v>60.12580242351726</v>
       </c>
       <c r="J46" t="n">
-        <v>105.1020732595476</v>
+        <v>105.1020732595475</v>
       </c>
       <c r="K46" t="n">
-        <v>399.772709694224</v>
+        <v>231.5799348298918</v>
       </c>
       <c r="L46" t="n">
-        <v>912.5617265081461</v>
+        <v>744.3689516438141</v>
       </c>
       <c r="M46" t="n">
-        <v>1471.766030621767</v>
+        <v>1303.573255757435</v>
       </c>
       <c r="N46" t="n">
-        <v>2011.374141607996</v>
+        <v>1843.181366743664</v>
       </c>
       <c r="O46" t="n">
-        <v>2520.961233055534</v>
+        <v>2352.768458191201</v>
       </c>
       <c r="P46" t="n">
-        <v>2945.408374833841</v>
+        <v>2777.215599969509</v>
       </c>
       <c r="Q46" t="n">
         <v>2998.677814292588</v>
@@ -7839,7 +7839,7 @@
         <v>2615.254193287674</v>
       </c>
       <c r="U46" t="n">
-        <v>2336.856596530478</v>
+        <v>2336.856596530479</v>
       </c>
       <c r="V46" t="n">
         <v>2049.901088400909</v>
@@ -7851,7 +7851,7 @@
         <v>1532.482929320613</v>
       </c>
       <c r="Y46" t="n">
-        <v>1305.063258634721</v>
+        <v>1305.063258634722</v>
       </c>
     </row>
   </sheetData>
@@ -7990,16 +7990,16 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>39.64570999510202</v>
+      </c>
+      <c r="P2" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="O2" t="n">
-        <v>41.31500304752736</v>
-      </c>
-      <c r="P2" t="n">
-        <v>39.64570999510201</v>
-      </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="R2" t="n">
         <v>41.31500304752734</v>
@@ -8057,31 +8057,31 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>41.31500304752736</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>13.31876740878121</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>13.31876740878122</v>
+      </c>
+      <c r="P3" t="n">
+        <v>41.31500304752735</v>
+      </c>
+      <c r="Q3" t="n">
         <v>41.31500304752734</v>
       </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
+      <c r="R3" t="n">
         <v>41.31500304752734</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8136,28 +8136,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
+        <v>39.64570999510202</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="K4" t="n">
-        <v>41.31500304752736</v>
-      </c>
-      <c r="L4" t="n">
-        <v>39.64570999510201</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8221,25 +8221,25 @@
         <v>41.31500304752735</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>39.64570999510201</v>
       </c>
       <c r="N5" t="n">
-        <v>41.31500304752736</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
         <v>41.31500304752734</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>39.64570999510201</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,16 +8294,16 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
         <v>41.31500304752736</v>
       </c>
-      <c r="K6" t="n">
+      <c r="L6" t="n">
         <v>41.31500304752734</v>
       </c>
-      <c r="L6" t="n">
+      <c r="M6" t="n">
         <v>13.31876740878121</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8379,10 +8379,10 @@
         <v>41.31500304752736</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>39.64570999510201</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -8391,10 +8391,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>39.64570999510201</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8455,16 +8455,16 @@
         <v>41.31500304752735</v>
       </c>
       <c r="K8" t="n">
-        <v>39.64570999510202</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="M8" t="n">
-        <v>41.31500304752734</v>
+        <v>39.64570999510201</v>
       </c>
       <c r="N8" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -8537,7 +8537,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8546,10 +8546,10 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>13.31876740878122</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>41.31500304752735</v>
+        <v>13.31876740878121</v>
       </c>
       <c r="Q9" t="n">
         <v>41.31500304752734</v>
@@ -8619,16 +8619,16 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="N10" t="n">
-        <v>41.31500304752736</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="O10" t="n">
-        <v>41.31500304752734</v>
+        <v>39.64570999510201</v>
       </c>
       <c r="P10" t="n">
-        <v>39.64570999510201</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -8707,7 +8707,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>29.51002495953958</v>
+        <v>29.51002495954094</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
@@ -8765,10 +8765,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>252.5949739201396</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>397.2782580158939</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8847,10 +8847,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>277.5337924960966</v>
+        <v>222.9907144309254</v>
       </c>
       <c r="L13" t="n">
         <v>422.4342240080415</v>
@@ -8865,10 +8865,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P13" t="n">
-        <v>39.12806733010075</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q13" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8932,13 +8932,13 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>525.5089844589318</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>495.9631096884195</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -8947,7 +8947,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>85.56589098687255</v>
+        <v>56.020016216361</v>
       </c>
       <c r="R14" t="n">
         <v>170.8626916697543</v>
@@ -9002,13 +9002,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>278.9219165064598</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>43.11462354451089</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9087,10 +9087,10 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>53.09902264877121</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080415</v>
+        <v>367.8911459428704</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645587</v>
@@ -9105,7 +9105,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q16" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9163,10 +9163,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>469.1612244069314</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9178,13 +9178,13 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>510.2078026459606</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>71.32119802933221</v>
       </c>
       <c r="Q17" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>170.8626916697543</v>
@@ -9239,13 +9239,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>43.11462354451089</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9257,7 +9257,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>397.2782580158939</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -9321,13 +9321,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
-        <v>222.9907144309251</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080415</v>
+        <v>110.5452267216358</v>
       </c>
       <c r="M19" t="n">
         <v>464.1251183645587</v>
@@ -9342,7 +9342,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>29.51002495954094</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>185.8719794580584</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>495.9631096884195</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>510.2078026459606</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,13 +9476,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>43.11462354451089</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9500,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>397.2782580158939</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -9561,7 +9561,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>222.9907144309251</v>
+        <v>53.09902264877152</v>
       </c>
       <c r="L22" t="n">
         <v>422.4342240080415</v>
@@ -9579,7 +9579,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9637,28 +9637,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
-        <v>1037.884129318185</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>1012.408422629695</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>999.6862015568986</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>378.8538644107525</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
         <v>170.8626916697543</v>
@@ -9713,13 +9713,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>43.11462354451089</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9737,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>397.2782580158942</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -9798,7 +9798,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>222.9907144309251</v>
+        <v>222.9907144309258</v>
       </c>
       <c r="L25" t="n">
         <v>422.4342240080415</v>
@@ -9874,13 +9874,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>842.065356929787</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>378.8538644107514</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9889,7 +9889,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>836.6766412458549</v>
@@ -9898,7 +9898,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9974,7 +9974,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>397.2782580158942</v>
+        <v>397.2782580158946</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -10032,13 +10032,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
-        <v>53.09902264877121</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080415</v>
+        <v>110.5452267216358</v>
       </c>
       <c r="M28" t="n">
         <v>464.1251183645587</v>
@@ -10111,28 +10111,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>1037.884129318185</v>
+        <v>225.4500343734683</v>
       </c>
       <c r="M29" t="n">
-        <v>1012.408422629696</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>999.6862015568977</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
         <v>170.8626916697543</v>
@@ -10187,13 +10187,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>43.11462354451089</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10211,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>397.2782580158937</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -10269,16 +10269,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
-        <v>222.9907144309251</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>464.1251183645587</v>
+        <v>152.236121078153</v>
       </c>
       <c r="N31" t="n">
         <v>446.7260637956006</v>
@@ -10290,7 +10290,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10348,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
-        <v>589.5808768800177</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>1012.408422629695</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1008.338254547673</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>551.3062599605119</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,13 +10424,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>43.11462354451089</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10448,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>397.2782580158942</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -10506,13 +10506,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>222.9907144309251</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080415</v>
+        <v>110.5452267216358</v>
       </c>
       <c r="M34" t="n">
         <v>464.1251183645587</v>
@@ -10527,7 +10527,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10588,7 +10588,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>29.51002495953958</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10603,7 +10603,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>29.51002495954094</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157522</v>
@@ -10661,13 +10661,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>43.11462354451089</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10685,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>397.2782580158939</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -10743,10 +10743,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>222.9907144309251</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
         <v>422.4342240080415</v>
@@ -10761,10 +10761,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P37" t="n">
-        <v>351.0170646165068</v>
+        <v>39.1280673301012</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>29.51002495953958</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10840,7 +10840,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>29.51002495954094</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157522</v>
@@ -10898,13 +10898,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>43.11462354451089</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10922,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>397.2782580158939</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -10980,13 +10980,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>222.9907144309254</v>
       </c>
       <c r="L40" t="n">
-        <v>388.0790192177321</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
         <v>464.1251183645587</v>
@@ -11001,7 +11001,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11077,7 +11077,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>29.51002495953958</v>
+        <v>29.51002495954094</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157522</v>
@@ -11135,13 +11135,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>278.9219165064598</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>43.11462354451089</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11220,7 +11220,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>222.9907144309251</v>
+        <v>222.9907144309254</v>
       </c>
       <c r="L43" t="n">
         <v>422.4342240080415</v>
@@ -11299,13 +11299,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>81.4957229048498</v>
+        <v>29.51002495954094</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>500.0332777704423</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -11317,7 +11317,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
         <v>170.8626916697543</v>
@@ -11372,13 +11372,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>278.9219165064598</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>43.11462354451089</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11457,7 +11457,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>222.9907144309251</v>
+        <v>53.09902264877152</v>
       </c>
       <c r="L46" t="n">
         <v>422.4342240080415</v>
@@ -11475,7 +11475,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23260,10 +23260,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>13.34407681998852</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23272,7 +23272,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>395.9513258013682</v>
       </c>
       <c r="H11" t="n">
         <v>271.5679831933489</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>50.17164010427806</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>211.5956667680352</v>
+        <v>52.36785263123113</v>
       </c>
       <c r="U11" t="n">
-        <v>256.5154774752252</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23497,16 +23497,16 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>78.17047167005398</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23545,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>50.17164010427806</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>211.5956667680352</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>256.5154774752252</v>
@@ -23560,7 +23560,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>258.1261445685672</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23731,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>228.5540508200303</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>20.04383296713763</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>395.9513258013682</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>271.5679831933489</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>50.17164010427806</v>
+        <v>50.17164010427808</v>
       </c>
       <c r="T17" t="n">
-        <v>211.5956667680352</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>256.5154774752252</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23968,19 +23968,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>46.22960555326853</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>50.17164010427806</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>211.5956667680352</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>256.5154774752252</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>405.8228659749795</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -25153,22 +25153,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>187.3197409033865</v>
       </c>
       <c r="C35" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>395.9513258013682</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -25213,13 +25213,13 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>81.27416289967869</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
         <v>433.7610480884109</v>
@@ -25399,7 +25399,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>308.2321839633585</v>
       </c>
       <c r="F38" t="n">
         <v>423.5887552948843</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>50.17164010427806</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25450,13 +25450,13 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>321.1063380736276</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25633,7 +25633,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>410.9896829353342</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25642,10 +25642,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>395.9513258013682</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>271.5679831933489</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>50.17164010427806</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>33.55784332930301</v>
       </c>
       <c r="U41" t="n">
-        <v>256.5154774752252</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25693,7 +25693,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>51.76799907415119</v>
       </c>
       <c r="D44" t="n">
         <v>431.5506869772999</v>
@@ -25876,10 +25876,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>20.04514085194586</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>50.17164010427806</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>211.5956667680352</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.5154774752252</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -25930,10 +25930,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>394577.8036362352</v>
+        <v>394577.8036362353</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>394577.8036362352</v>
+        <v>394577.8036362353</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>589513.6223220738</v>
+        <v>589513.6223220739</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>394577.8036362352</v>
+        <v>394577.8036362353</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>394577.8036362352</v>
+        <v>394577.8036362353</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>394577.8036362352</v>
+        <v>394577.8036362353</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>394577.8036362353</v>
+        <v>394577.8036362352</v>
       </c>
     </row>
   </sheetData>
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>455725.2219068474</v>
+      </c>
+      <c r="C2" t="n">
         <v>455725.2219068473</v>
       </c>
-      <c r="C2" t="n">
-        <v>455725.2219068471</v>
-      </c>
       <c r="D2" t="n">
-        <v>455725.2219068471</v>
+        <v>455725.2219068472</v>
       </c>
       <c r="E2" t="n">
         <v>321188.3551364393</v>
       </c>
       <c r="F2" t="n">
-        <v>321188.3551364393</v>
+        <v>321188.3551364392</v>
       </c>
       <c r="G2" t="n">
         <v>321188.3551364393</v>
@@ -26334,25 +26334,25 @@
         <v>321188.3551364393</v>
       </c>
       <c r="I2" t="n">
+        <v>455725.2219068472</v>
+      </c>
+      <c r="J2" t="n">
         <v>455725.2219068471</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>455725.2219068472</v>
       </c>
-      <c r="K2" t="n">
-        <v>455725.2219068473</v>
-      </c>
       <c r="L2" t="n">
-        <v>455725.2219068473</v>
+        <v>455725.2219068471</v>
       </c>
       <c r="M2" t="n">
-        <v>321188.3551364393</v>
+        <v>321188.3551364392</v>
       </c>
       <c r="N2" t="n">
         <v>321188.3551364393</v>
       </c>
       <c r="O2" t="n">
-        <v>321188.3551364393</v>
+        <v>321188.3551364392</v>
       </c>
       <c r="P2" t="n">
         <v>321188.3551364393</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13845.60776629648</v>
+        <v>13845.60776629651</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>498352.8259836708</v>
+        <v>498352.8259836707</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>49313.0812204161</v>
+        <v>49313.08122041613</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>300561.0441910594</v>
+        <v>300559.6315411527</v>
       </c>
       <c r="C4" t="n">
-        <v>300561.0441910594</v>
+        <v>300559.6315411527</v>
       </c>
       <c r="D4" t="n">
-        <v>300561.0441910595</v>
+        <v>300559.6315411527</v>
       </c>
       <c r="E4" t="n">
-        <v>55826.50000992573</v>
+        <v>55816.58245945302</v>
       </c>
       <c r="F4" t="n">
-        <v>55826.50000992575</v>
+        <v>55816.58245945301</v>
       </c>
       <c r="G4" t="n">
-        <v>55826.50000992574</v>
+        <v>55816.58245945301</v>
       </c>
       <c r="H4" t="n">
-        <v>55826.50000992576</v>
+        <v>55816.58245945301</v>
       </c>
       <c r="I4" t="n">
-        <v>109288.4400642139</v>
+        <v>109268.9709380393</v>
       </c>
       <c r="J4" t="n">
-        <v>109288.4400642138</v>
+        <v>109268.9709380392</v>
       </c>
       <c r="K4" t="n">
-        <v>109288.4400642139</v>
+        <v>109268.9709380392</v>
       </c>
       <c r="L4" t="n">
-        <v>109288.4400642139</v>
+        <v>109268.9709380392</v>
       </c>
       <c r="M4" t="n">
-        <v>55826.50000992574</v>
+        <v>55816.58245945302</v>
       </c>
       <c r="N4" t="n">
-        <v>55826.50000992574</v>
+        <v>55816.58245945302</v>
       </c>
       <c r="O4" t="n">
-        <v>55826.50000992573</v>
+        <v>55816.58245945302</v>
       </c>
       <c r="P4" t="n">
-        <v>55826.50000992574</v>
+        <v>55816.58245945301</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>105179.0177642017</v>
+        <v>105180.4304141085</v>
       </c>
       <c r="C6" t="n">
-        <v>119024.6255304981</v>
+        <v>119026.0381804049</v>
       </c>
       <c r="D6" t="n">
-        <v>119024.625530498</v>
+        <v>119026.0381804048</v>
       </c>
       <c r="E6" t="n">
-        <v>-286454.8179068749</v>
+        <v>-290401.86702612</v>
       </c>
       <c r="F6" t="n">
-        <v>211898.0080767958</v>
+        <v>207950.9589575506</v>
       </c>
       <c r="G6" t="n">
-        <v>211898.0080767958</v>
+        <v>207950.9589575507</v>
       </c>
       <c r="H6" t="n">
-        <v>211898.0080767959</v>
+        <v>207950.9589575507</v>
       </c>
       <c r="I6" t="n">
-        <v>125569.2150893554</v>
+        <v>125588.6842155301</v>
       </c>
       <c r="J6" t="n">
-        <v>251010.7033281059</v>
+        <v>251030.1724542804</v>
       </c>
       <c r="K6" t="n">
-        <v>261820.5259854731</v>
+        <v>261839.9951116477</v>
       </c>
       <c r="L6" t="n">
-        <v>261820.5259854731</v>
+        <v>261839.9951116476</v>
       </c>
       <c r="M6" t="n">
-        <v>162584.9268563798</v>
+        <v>158637.8777371345</v>
       </c>
       <c r="N6" t="n">
-        <v>211898.0080767958</v>
+        <v>207950.9589575507</v>
       </c>
       <c r="O6" t="n">
-        <v>211898.0080767958</v>
+        <v>207950.9589575506</v>
       </c>
       <c r="P6" t="n">
-        <v>211898.0080767958</v>
+        <v>207950.9589575507</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>356.3411563231451</v>
+        <v>356.3411563231449</v>
       </c>
       <c r="F3" t="n">
-        <v>356.3411563231451</v>
+        <v>356.3411563231449</v>
       </c>
       <c r="G3" t="n">
-        <v>356.3411563231451</v>
+        <v>356.3411563231449</v>
       </c>
       <c r="H3" t="n">
-        <v>356.3411563231451</v>
+        <v>356.3411563231449</v>
       </c>
       <c r="I3" t="n">
-        <v>356.3411563231451</v>
+        <v>356.3411563231449</v>
       </c>
       <c r="J3" t="n">
-        <v>356.3411563231451</v>
+        <v>356.3411563231449</v>
       </c>
       <c r="K3" t="n">
-        <v>356.3411563231451</v>
+        <v>356.3411563231449</v>
       </c>
       <c r="L3" t="n">
-        <v>356.3411563231451</v>
+        <v>356.3411563231449</v>
       </c>
       <c r="M3" t="n">
-        <v>356.3411563231451</v>
+        <v>356.3411563231449</v>
       </c>
       <c r="N3" t="n">
-        <v>356.3411563231451</v>
+        <v>356.3411563231449</v>
       </c>
       <c r="O3" t="n">
-        <v>356.3411563231451</v>
+        <v>356.3411563231449</v>
       </c>
       <c r="P3" t="n">
-        <v>356.3411563231451</v>
+        <v>356.3411563231449</v>
       </c>
     </row>
     <row r="4">
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>356.3411563231451</v>
+        <v>356.3411563231449</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>710.2575272464383</v>
+        <v>710.2575272464384</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>197.8823823871852</v>
+        <v>197.8823823871853</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>710.2575272464383</v>
+        <v>710.2575272464384</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27463,19 +27463,19 @@
         <v>105.3918965517241</v>
       </c>
       <c r="D3" t="n">
-        <v>52.82438291738493</v>
+        <v>94.13938596491228</v>
       </c>
       <c r="E3" t="n">
         <v>93.17921052631581</v>
       </c>
       <c r="F3" t="n">
-        <v>82.55</v>
+        <v>41.23499695247265</v>
       </c>
       <c r="G3" t="n">
-        <v>84.53123883647795</v>
+        <v>43.21623578895061</v>
       </c>
       <c r="H3" t="n">
-        <v>41.31829566194965</v>
+        <v>0.003292614422299778</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27517,13 +27517,13 @@
         <v>174.5731815300314</v>
       </c>
       <c r="V3" t="n">
-        <v>155.8113397110933</v>
+        <v>197.1263427586206</v>
       </c>
       <c r="W3" t="n">
         <v>183.4695267241379</v>
       </c>
       <c r="X3" t="n">
-        <v>112.0037583559815</v>
+        <v>153.3187614035088</v>
       </c>
       <c r="Y3" t="n">
         <v>125.2209214285714</v>
@@ -27536,25 +27536,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>148.5854294842699</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>129.52109135408</v>
       </c>
       <c r="D4" t="n">
-        <v>127.8289581862304</v>
+        <v>122.9042098229652</v>
       </c>
       <c r="E4" t="n">
-        <v>126.7454206642428</v>
+        <v>131.670169027508</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>122.6203591769033</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>97.18814951900188</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -27694,22 +27694,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>78.77585902143818</v>
+        <v>120.0908620689655</v>
       </c>
       <c r="C6" t="n">
         <v>105.3918965517241</v>
       </c>
       <c r="D6" t="n">
-        <v>52.82438291738493</v>
+        <v>94.13938596491228</v>
       </c>
       <c r="E6" t="n">
-        <v>93.17921052631581</v>
+        <v>51.86420747878847</v>
       </c>
       <c r="F6" t="n">
-        <v>82.55</v>
+        <v>41.23499695247265</v>
       </c>
       <c r="G6" t="n">
-        <v>84.53123883647795</v>
+        <v>43.21623578895061</v>
       </c>
       <c r="H6" t="n">
         <v>41.31829566194965</v>
@@ -27745,10 +27745,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>62.82088317610075</v>
+        <v>26.43062849183867</v>
       </c>
       <c r="T6" t="n">
-        <v>92.48660254844231</v>
+        <v>128.8768572327044</v>
       </c>
       <c r="U6" t="n">
         <v>174.5731815300314</v>
@@ -27763,7 +27763,7 @@
         <v>153.3187614035088</v>
       </c>
       <c r="Y6" t="n">
-        <v>83.90591838104407</v>
+        <v>125.2209214285714</v>
       </c>
     </row>
     <row r="7">
@@ -27788,13 +27788,13 @@
         <v>133.624980450334</v>
       </c>
       <c r="G7" t="n">
-        <v>122.6203591769033</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>46.45834668554406</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27830,7 +27830,7 @@
         <v>202.1056489098019</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>260.4620591368455</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
@@ -27839,7 +27839,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>227.7512255173414</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
         <v>225.1454739790328</v>
@@ -27931,7 +27931,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>120.0908620689655</v>
+        <v>78.77585902143818</v>
       </c>
       <c r="C9" t="n">
         <v>105.3918965517241</v>
@@ -27940,16 +27940,16 @@
         <v>94.13938596491228</v>
       </c>
       <c r="E9" t="n">
-        <v>56.78895584205372</v>
+        <v>93.17921052631581</v>
       </c>
       <c r="F9" t="n">
-        <v>41.23499695247265</v>
+        <v>82.55</v>
       </c>
       <c r="G9" t="n">
         <v>84.53123883647795</v>
       </c>
       <c r="H9" t="n">
-        <v>41.31829566194965</v>
+        <v>0.003292614422299778</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27982,7 +27982,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>62.82088317610075</v>
+        <v>21.5058801285734</v>
       </c>
       <c r="T9" t="n">
         <v>128.8768572327044</v>
@@ -27991,7 +27991,7 @@
         <v>174.5731815300314</v>
       </c>
       <c r="V9" t="n">
-        <v>155.8113397110933</v>
+        <v>197.1263427586206</v>
       </c>
       <c r="W9" t="n">
         <v>183.4695267241379</v>
@@ -28000,7 +28000,7 @@
         <v>153.3187614035088</v>
       </c>
       <c r="Y9" t="n">
-        <v>83.90591838104407</v>
+        <v>88.83066674430933</v>
       </c>
     </row>
     <row r="10">
@@ -28019,10 +28019,10 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>126.7454206642428</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>133.624980450334</v>
       </c>
       <c r="G10" t="n">
         <v>122.6203591769033</v>
@@ -28058,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>116.333951967456</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
@@ -28073,13 +28073,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>254.1195287669911</v>
       </c>
       <c r="X10" t="n">
-        <v>206.5475824356596</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>183.8304709315055</v>
       </c>
     </row>
     <row r="11">
@@ -31758,40 +31758,40 @@
         <v>14.67086981786696</v>
       </c>
       <c r="I11" t="n">
-        <v>55.2275072528565</v>
+        <v>55.22750725285647</v>
       </c>
       <c r="J11" t="n">
         <v>121.5839606692725</v>
       </c>
       <c r="K11" t="n">
-        <v>182.2228396528252</v>
+        <v>182.2228396528251</v>
       </c>
       <c r="L11" t="n">
-        <v>226.0635458350341</v>
+        <v>226.0635458350339</v>
       </c>
       <c r="M11" t="n">
-        <v>251.5392525235234</v>
+        <v>251.5392525235233</v>
       </c>
       <c r="N11" t="n">
-        <v>255.6094206055461</v>
+        <v>255.6094206055459</v>
       </c>
       <c r="O11" t="n">
-        <v>241.3647276480053</v>
+        <v>241.3647276480052</v>
       </c>
       <c r="P11" t="n">
-        <v>205.9992108772409</v>
+        <v>205.9992108772408</v>
       </c>
       <c r="Q11" t="n">
-        <v>154.69682832117</v>
+        <v>154.6968283211699</v>
       </c>
       <c r="R11" t="n">
-        <v>89.98599059651765</v>
+        <v>89.98599059651761</v>
       </c>
       <c r="S11" t="n">
-        <v>32.6437149737233</v>
+        <v>32.64371497372328</v>
       </c>
       <c r="T11" t="n">
-        <v>6.270888087656552</v>
+        <v>6.270888087656548</v>
       </c>
       <c r="U11" t="n">
         <v>0.1146021809280465</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.7664696569969536</v>
+        <v>0.7664696569969532</v>
       </c>
       <c r="H12" t="n">
-        <v>7.402483266260052</v>
+        <v>7.402483266260049</v>
       </c>
       <c r="I12" t="n">
-        <v>26.38941582204424</v>
+        <v>26.38941582204422</v>
       </c>
       <c r="J12" t="n">
-        <v>72.41457404110254</v>
+        <v>72.41457404110251</v>
       </c>
       <c r="K12" t="n">
         <v>123.7680410598984</v>
       </c>
       <c r="L12" t="n">
-        <v>166.4214051299745</v>
+        <v>166.4214051299744</v>
       </c>
       <c r="M12" t="n">
-        <v>194.205930196114</v>
+        <v>194.2059301961139</v>
       </c>
       <c r="N12" t="n">
-        <v>199.3459832906244</v>
+        <v>199.3459832906242</v>
       </c>
       <c r="O12" t="n">
-        <v>182.3626293119024</v>
+        <v>182.3626293119023</v>
       </c>
       <c r="P12" t="n">
-        <v>146.362087396199</v>
+        <v>146.3620873961989</v>
       </c>
       <c r="Q12" t="n">
-        <v>97.83917937385675</v>
+        <v>97.83917937385671</v>
       </c>
       <c r="R12" t="n">
-        <v>47.58835291424947</v>
+        <v>47.58835291424945</v>
       </c>
       <c r="S12" t="n">
         <v>14.23683770781621</v>
       </c>
       <c r="T12" t="n">
-        <v>3.089410591141228</v>
+        <v>3.089410591141227</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05042563532874696</v>
+        <v>0.05042563532874694</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6425824130417369</v>
+        <v>0.6425824130417366</v>
       </c>
       <c r="H13" t="n">
-        <v>5.713141817771083</v>
+        <v>5.71314181777108</v>
       </c>
       <c r="I13" t="n">
-        <v>19.32420565765515</v>
+        <v>19.32420565765514</v>
       </c>
       <c r="J13" t="n">
-        <v>45.4305766020508</v>
+        <v>45.43057660205078</v>
       </c>
       <c r="K13" t="n">
-        <v>74.65639307884906</v>
+        <v>74.65639307884902</v>
       </c>
       <c r="L13" t="n">
-        <v>95.53447984440515</v>
+        <v>95.53447984440511</v>
       </c>
       <c r="M13" t="n">
         <v>100.7277140734424</v>
       </c>
       <c r="N13" t="n">
-        <v>98.33263417028697</v>
+        <v>98.33263417028691</v>
       </c>
       <c r="O13" t="n">
-        <v>90.82610325429935</v>
+        <v>90.82610325429931</v>
       </c>
       <c r="P13" t="n">
-        <v>77.71742202824787</v>
+        <v>77.71742202824782</v>
       </c>
       <c r="Q13" t="n">
-        <v>53.8075146047949</v>
+        <v>53.80751460479487</v>
       </c>
       <c r="R13" t="n">
-        <v>28.89284195367664</v>
+        <v>28.89284195367662</v>
       </c>
       <c r="S13" t="n">
-        <v>11.19845896182736</v>
+        <v>11.19845896182735</v>
       </c>
       <c r="T13" t="n">
-        <v>2.74557940117833</v>
+        <v>2.745579401178329</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0350499498022766</v>
+        <v>0.03504994980227658</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31995,40 +31995,40 @@
         <v>14.67086981786696</v>
       </c>
       <c r="I14" t="n">
-        <v>55.2275072528565</v>
+        <v>55.22750725285647</v>
       </c>
       <c r="J14" t="n">
         <v>121.5839606692725</v>
       </c>
       <c r="K14" t="n">
-        <v>182.2228396528252</v>
+        <v>182.2228396528251</v>
       </c>
       <c r="L14" t="n">
-        <v>226.0635458350341</v>
+        <v>226.0635458350339</v>
       </c>
       <c r="M14" t="n">
-        <v>251.5392525235234</v>
+        <v>251.5392525235233</v>
       </c>
       <c r="N14" t="n">
-        <v>255.6094206055461</v>
+        <v>255.6094206055459</v>
       </c>
       <c r="O14" t="n">
-        <v>241.3647276480053</v>
+        <v>241.3647276480052</v>
       </c>
       <c r="P14" t="n">
-        <v>205.9992108772409</v>
+        <v>205.9992108772408</v>
       </c>
       <c r="Q14" t="n">
-        <v>154.69682832117</v>
+        <v>154.6968283211699</v>
       </c>
       <c r="R14" t="n">
-        <v>89.98599059651765</v>
+        <v>89.98599059651761</v>
       </c>
       <c r="S14" t="n">
-        <v>32.6437149737233</v>
+        <v>32.64371497372328</v>
       </c>
       <c r="T14" t="n">
-        <v>6.270888087656552</v>
+        <v>6.270888087656548</v>
       </c>
       <c r="U14" t="n">
         <v>0.1146021809280465</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7664696569969536</v>
+        <v>0.7664696569969532</v>
       </c>
       <c r="H15" t="n">
-        <v>7.402483266260052</v>
+        <v>7.402483266260049</v>
       </c>
       <c r="I15" t="n">
-        <v>26.38941582204424</v>
+        <v>26.38941582204422</v>
       </c>
       <c r="J15" t="n">
-        <v>72.41457404110254</v>
+        <v>72.41457404110251</v>
       </c>
       <c r="K15" t="n">
         <v>123.7680410598984</v>
       </c>
       <c r="L15" t="n">
-        <v>166.4214051299745</v>
+        <v>166.4214051299744</v>
       </c>
       <c r="M15" t="n">
-        <v>194.205930196114</v>
+        <v>194.2059301961139</v>
       </c>
       <c r="N15" t="n">
-        <v>199.3459832906244</v>
+        <v>199.3459832906242</v>
       </c>
       <c r="O15" t="n">
-        <v>182.3626293119024</v>
+        <v>182.3626293119023</v>
       </c>
       <c r="P15" t="n">
-        <v>146.362087396199</v>
+        <v>146.3620873961989</v>
       </c>
       <c r="Q15" t="n">
-        <v>97.83917937385675</v>
+        <v>97.83917937385671</v>
       </c>
       <c r="R15" t="n">
-        <v>47.58835291424947</v>
+        <v>47.58835291424945</v>
       </c>
       <c r="S15" t="n">
         <v>14.23683770781621</v>
       </c>
       <c r="T15" t="n">
-        <v>3.089410591141228</v>
+        <v>3.089410591141227</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05042563532874696</v>
+        <v>0.05042563532874694</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6425824130417369</v>
+        <v>0.6425824130417366</v>
       </c>
       <c r="H16" t="n">
-        <v>5.713141817771083</v>
+        <v>5.71314181777108</v>
       </c>
       <c r="I16" t="n">
-        <v>19.32420565765515</v>
+        <v>19.32420565765514</v>
       </c>
       <c r="J16" t="n">
-        <v>45.4305766020508</v>
+        <v>45.43057660205078</v>
       </c>
       <c r="K16" t="n">
-        <v>74.65639307884906</v>
+        <v>74.65639307884902</v>
       </c>
       <c r="L16" t="n">
-        <v>95.53447984440515</v>
+        <v>95.53447984440511</v>
       </c>
       <c r="M16" t="n">
         <v>100.7277140734424</v>
       </c>
       <c r="N16" t="n">
-        <v>98.33263417028697</v>
+        <v>98.33263417028691</v>
       </c>
       <c r="O16" t="n">
-        <v>90.82610325429935</v>
+        <v>90.82610325429931</v>
       </c>
       <c r="P16" t="n">
-        <v>77.71742202824787</v>
+        <v>77.71742202824782</v>
       </c>
       <c r="Q16" t="n">
-        <v>53.8075146047949</v>
+        <v>53.80751460479487</v>
       </c>
       <c r="R16" t="n">
-        <v>28.89284195367664</v>
+        <v>28.89284195367662</v>
       </c>
       <c r="S16" t="n">
-        <v>11.19845896182736</v>
+        <v>11.19845896182735</v>
       </c>
       <c r="T16" t="n">
-        <v>2.74557940117833</v>
+        <v>2.745579401178329</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0350499498022766</v>
+        <v>0.03504994980227658</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32232,40 +32232,40 @@
         <v>14.67086981786696</v>
       </c>
       <c r="I17" t="n">
-        <v>55.2275072528565</v>
+        <v>55.22750725285647</v>
       </c>
       <c r="J17" t="n">
         <v>121.5839606692725</v>
       </c>
       <c r="K17" t="n">
-        <v>182.2228396528252</v>
+        <v>182.2228396528251</v>
       </c>
       <c r="L17" t="n">
-        <v>226.0635458350341</v>
+        <v>226.0635458350339</v>
       </c>
       <c r="M17" t="n">
-        <v>251.5392525235234</v>
+        <v>251.5392525235233</v>
       </c>
       <c r="N17" t="n">
-        <v>255.6094206055461</v>
+        <v>255.6094206055459</v>
       </c>
       <c r="O17" t="n">
-        <v>241.3647276480053</v>
+        <v>241.3647276480052</v>
       </c>
       <c r="P17" t="n">
-        <v>205.9992108772409</v>
+        <v>205.9992108772408</v>
       </c>
       <c r="Q17" t="n">
-        <v>154.69682832117</v>
+        <v>154.6968283211699</v>
       </c>
       <c r="R17" t="n">
-        <v>89.98599059651765</v>
+        <v>89.98599059651761</v>
       </c>
       <c r="S17" t="n">
-        <v>32.6437149737233</v>
+        <v>32.64371497372328</v>
       </c>
       <c r="T17" t="n">
-        <v>6.270888087656552</v>
+        <v>6.270888087656548</v>
       </c>
       <c r="U17" t="n">
         <v>0.1146021809280465</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7664696569969536</v>
+        <v>0.7664696569969532</v>
       </c>
       <c r="H18" t="n">
-        <v>7.402483266260052</v>
+        <v>7.402483266260049</v>
       </c>
       <c r="I18" t="n">
-        <v>26.38941582204424</v>
+        <v>26.38941582204422</v>
       </c>
       <c r="J18" t="n">
-        <v>72.41457404110254</v>
+        <v>72.41457404110251</v>
       </c>
       <c r="K18" t="n">
         <v>123.7680410598984</v>
       </c>
       <c r="L18" t="n">
-        <v>166.4214051299745</v>
+        <v>166.4214051299744</v>
       </c>
       <c r="M18" t="n">
-        <v>194.205930196114</v>
+        <v>194.2059301961139</v>
       </c>
       <c r="N18" t="n">
-        <v>199.3459832906244</v>
+        <v>199.3459832906242</v>
       </c>
       <c r="O18" t="n">
-        <v>182.3626293119024</v>
+        <v>182.3626293119023</v>
       </c>
       <c r="P18" t="n">
-        <v>146.362087396199</v>
+        <v>146.3620873961989</v>
       </c>
       <c r="Q18" t="n">
-        <v>97.83917937385675</v>
+        <v>97.83917937385671</v>
       </c>
       <c r="R18" t="n">
-        <v>47.58835291424947</v>
+        <v>47.58835291424945</v>
       </c>
       <c r="S18" t="n">
         <v>14.23683770781621</v>
       </c>
       <c r="T18" t="n">
-        <v>3.089410591141228</v>
+        <v>3.089410591141227</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05042563532874696</v>
+        <v>0.05042563532874694</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6425824130417369</v>
+        <v>0.6425824130417366</v>
       </c>
       <c r="H19" t="n">
-        <v>5.713141817771083</v>
+        <v>5.71314181777108</v>
       </c>
       <c r="I19" t="n">
-        <v>19.32420565765515</v>
+        <v>19.32420565765514</v>
       </c>
       <c r="J19" t="n">
-        <v>45.4305766020508</v>
+        <v>45.43057660205078</v>
       </c>
       <c r="K19" t="n">
-        <v>74.65639307884906</v>
+        <v>74.65639307884902</v>
       </c>
       <c r="L19" t="n">
-        <v>95.53447984440515</v>
+        <v>95.53447984440511</v>
       </c>
       <c r="M19" t="n">
         <v>100.7277140734424</v>
       </c>
       <c r="N19" t="n">
-        <v>98.33263417028697</v>
+        <v>98.33263417028691</v>
       </c>
       <c r="O19" t="n">
-        <v>90.82610325429935</v>
+        <v>90.82610325429931</v>
       </c>
       <c r="P19" t="n">
-        <v>77.71742202824787</v>
+        <v>77.71742202824782</v>
       </c>
       <c r="Q19" t="n">
-        <v>53.8075146047949</v>
+        <v>53.80751460479487</v>
       </c>
       <c r="R19" t="n">
-        <v>28.89284195367664</v>
+        <v>28.89284195367662</v>
       </c>
       <c r="S19" t="n">
-        <v>11.19845896182736</v>
+        <v>11.19845896182735</v>
       </c>
       <c r="T19" t="n">
-        <v>2.74557940117833</v>
+        <v>2.745579401178329</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0350499498022766</v>
+        <v>0.03504994980227658</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32469,40 +32469,40 @@
         <v>14.67086981786696</v>
       </c>
       <c r="I20" t="n">
-        <v>55.2275072528565</v>
+        <v>55.22750725285647</v>
       </c>
       <c r="J20" t="n">
         <v>121.5839606692725</v>
       </c>
       <c r="K20" t="n">
-        <v>182.2228396528252</v>
+        <v>182.2228396528251</v>
       </c>
       <c r="L20" t="n">
-        <v>226.0635458350341</v>
+        <v>226.0635458350339</v>
       </c>
       <c r="M20" t="n">
-        <v>251.5392525235234</v>
+        <v>251.5392525235233</v>
       </c>
       <c r="N20" t="n">
-        <v>255.6094206055461</v>
+        <v>255.6094206055459</v>
       </c>
       <c r="O20" t="n">
-        <v>241.3647276480053</v>
+        <v>241.3647276480052</v>
       </c>
       <c r="P20" t="n">
-        <v>205.9992108772409</v>
+        <v>205.9992108772408</v>
       </c>
       <c r="Q20" t="n">
-        <v>154.69682832117</v>
+        <v>154.6968283211699</v>
       </c>
       <c r="R20" t="n">
-        <v>89.98599059651765</v>
+        <v>89.98599059651761</v>
       </c>
       <c r="S20" t="n">
-        <v>32.6437149737233</v>
+        <v>32.64371497372328</v>
       </c>
       <c r="T20" t="n">
-        <v>6.270888087656552</v>
+        <v>6.270888087656548</v>
       </c>
       <c r="U20" t="n">
         <v>0.1146021809280465</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.7664696569969536</v>
+        <v>0.7664696569969532</v>
       </c>
       <c r="H21" t="n">
-        <v>7.402483266260052</v>
+        <v>7.402483266260049</v>
       </c>
       <c r="I21" t="n">
-        <v>26.38941582204424</v>
+        <v>26.38941582204422</v>
       </c>
       <c r="J21" t="n">
-        <v>72.41457404110254</v>
+        <v>72.41457404110251</v>
       </c>
       <c r="K21" t="n">
         <v>123.7680410598984</v>
       </c>
       <c r="L21" t="n">
-        <v>166.4214051299745</v>
+        <v>166.4214051299744</v>
       </c>
       <c r="M21" t="n">
-        <v>194.205930196114</v>
+        <v>194.2059301961139</v>
       </c>
       <c r="N21" t="n">
-        <v>199.3459832906244</v>
+        <v>199.3459832906242</v>
       </c>
       <c r="O21" t="n">
-        <v>182.3626293119024</v>
+        <v>182.3626293119023</v>
       </c>
       <c r="P21" t="n">
-        <v>146.362087396199</v>
+        <v>146.3620873961989</v>
       </c>
       <c r="Q21" t="n">
-        <v>97.83917937385675</v>
+        <v>97.83917937385671</v>
       </c>
       <c r="R21" t="n">
-        <v>47.58835291424947</v>
+        <v>47.58835291424945</v>
       </c>
       <c r="S21" t="n">
         <v>14.23683770781621</v>
       </c>
       <c r="T21" t="n">
-        <v>3.089410591141228</v>
+        <v>3.089410591141227</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05042563532874696</v>
+        <v>0.05042563532874694</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6425824130417369</v>
+        <v>0.6425824130417366</v>
       </c>
       <c r="H22" t="n">
-        <v>5.713141817771083</v>
+        <v>5.71314181777108</v>
       </c>
       <c r="I22" t="n">
-        <v>19.32420565765515</v>
+        <v>19.32420565765514</v>
       </c>
       <c r="J22" t="n">
-        <v>45.4305766020508</v>
+        <v>45.43057660205078</v>
       </c>
       <c r="K22" t="n">
-        <v>74.65639307884906</v>
+        <v>74.65639307884902</v>
       </c>
       <c r="L22" t="n">
-        <v>95.53447984440515</v>
+        <v>95.53447984440511</v>
       </c>
       <c r="M22" t="n">
         <v>100.7277140734424</v>
       </c>
       <c r="N22" t="n">
-        <v>98.33263417028697</v>
+        <v>98.33263417028691</v>
       </c>
       <c r="O22" t="n">
-        <v>90.82610325429935</v>
+        <v>90.82610325429931</v>
       </c>
       <c r="P22" t="n">
-        <v>77.71742202824787</v>
+        <v>77.71742202824782</v>
       </c>
       <c r="Q22" t="n">
-        <v>53.8075146047949</v>
+        <v>53.80751460479487</v>
       </c>
       <c r="R22" t="n">
-        <v>28.89284195367664</v>
+        <v>28.89284195367662</v>
       </c>
       <c r="S22" t="n">
-        <v>11.19845896182736</v>
+        <v>11.19845896182735</v>
       </c>
       <c r="T22" t="n">
-        <v>2.74557940117833</v>
+        <v>2.745579401178329</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0350499498022766</v>
+        <v>0.03504994980227658</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32706,40 +32706,40 @@
         <v>14.67086981786696</v>
       </c>
       <c r="I23" t="n">
-        <v>55.2275072528565</v>
+        <v>55.22750725285647</v>
       </c>
       <c r="J23" t="n">
         <v>121.5839606692725</v>
       </c>
       <c r="K23" t="n">
-        <v>182.2228396528252</v>
+        <v>182.2228396528251</v>
       </c>
       <c r="L23" t="n">
-        <v>226.0635458350341</v>
+        <v>226.0635458350339</v>
       </c>
       <c r="M23" t="n">
-        <v>251.5392525235234</v>
+        <v>251.5392525235233</v>
       </c>
       <c r="N23" t="n">
-        <v>255.6094206055461</v>
+        <v>255.6094206055459</v>
       </c>
       <c r="O23" t="n">
-        <v>241.3647276480053</v>
+        <v>241.3647276480052</v>
       </c>
       <c r="P23" t="n">
-        <v>205.9992108772409</v>
+        <v>205.9992108772408</v>
       </c>
       <c r="Q23" t="n">
-        <v>154.69682832117</v>
+        <v>154.6968283211699</v>
       </c>
       <c r="R23" t="n">
-        <v>89.98599059651765</v>
+        <v>89.98599059651761</v>
       </c>
       <c r="S23" t="n">
-        <v>32.6437149737233</v>
+        <v>32.64371497372328</v>
       </c>
       <c r="T23" t="n">
-        <v>6.270888087656552</v>
+        <v>6.270888087656548</v>
       </c>
       <c r="U23" t="n">
         <v>0.1146021809280465</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.7664696569969536</v>
+        <v>0.7664696569969532</v>
       </c>
       <c r="H24" t="n">
-        <v>7.402483266260052</v>
+        <v>7.402483266260049</v>
       </c>
       <c r="I24" t="n">
-        <v>26.38941582204424</v>
+        <v>26.38941582204422</v>
       </c>
       <c r="J24" t="n">
-        <v>72.41457404110254</v>
+        <v>72.41457404110251</v>
       </c>
       <c r="K24" t="n">
         <v>123.7680410598984</v>
       </c>
       <c r="L24" t="n">
-        <v>166.4214051299745</v>
+        <v>166.4214051299744</v>
       </c>
       <c r="M24" t="n">
-        <v>194.205930196114</v>
+        <v>194.2059301961139</v>
       </c>
       <c r="N24" t="n">
-        <v>199.3459832906244</v>
+        <v>199.3459832906242</v>
       </c>
       <c r="O24" t="n">
-        <v>182.3626293119024</v>
+        <v>182.3626293119023</v>
       </c>
       <c r="P24" t="n">
-        <v>146.362087396199</v>
+        <v>146.3620873961989</v>
       </c>
       <c r="Q24" t="n">
-        <v>97.83917937385675</v>
+        <v>97.83917937385671</v>
       </c>
       <c r="R24" t="n">
-        <v>47.58835291424947</v>
+        <v>47.58835291424945</v>
       </c>
       <c r="S24" t="n">
         <v>14.23683770781621</v>
       </c>
       <c r="T24" t="n">
-        <v>3.089410591141228</v>
+        <v>3.089410591141227</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05042563532874696</v>
+        <v>0.05042563532874694</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6425824130417369</v>
+        <v>0.6425824130417366</v>
       </c>
       <c r="H25" t="n">
-        <v>5.713141817771083</v>
+        <v>5.71314181777108</v>
       </c>
       <c r="I25" t="n">
-        <v>19.32420565765515</v>
+        <v>19.32420565765514</v>
       </c>
       <c r="J25" t="n">
-        <v>45.4305766020508</v>
+        <v>45.43057660205078</v>
       </c>
       <c r="K25" t="n">
-        <v>74.65639307884906</v>
+        <v>74.65639307884902</v>
       </c>
       <c r="L25" t="n">
-        <v>95.53447984440515</v>
+        <v>95.53447984440511</v>
       </c>
       <c r="M25" t="n">
         <v>100.7277140734424</v>
       </c>
       <c r="N25" t="n">
-        <v>98.33263417028697</v>
+        <v>98.33263417028691</v>
       </c>
       <c r="O25" t="n">
-        <v>90.82610325429935</v>
+        <v>90.82610325429931</v>
       </c>
       <c r="P25" t="n">
-        <v>77.71742202824787</v>
+        <v>77.71742202824782</v>
       </c>
       <c r="Q25" t="n">
-        <v>53.8075146047949</v>
+        <v>53.80751460479487</v>
       </c>
       <c r="R25" t="n">
-        <v>28.89284195367664</v>
+        <v>28.89284195367662</v>
       </c>
       <c r="S25" t="n">
-        <v>11.19845896182736</v>
+        <v>11.19845896182735</v>
       </c>
       <c r="T25" t="n">
-        <v>2.74557940117833</v>
+        <v>2.745579401178329</v>
       </c>
       <c r="U25" t="n">
-        <v>0.0350499498022766</v>
+        <v>0.03504994980227658</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32943,40 +32943,40 @@
         <v>14.67086981786696</v>
       </c>
       <c r="I26" t="n">
-        <v>55.2275072528565</v>
+        <v>55.22750725285647</v>
       </c>
       <c r="J26" t="n">
         <v>121.5839606692725</v>
       </c>
       <c r="K26" t="n">
-        <v>182.2228396528252</v>
+        <v>182.2228396528251</v>
       </c>
       <c r="L26" t="n">
-        <v>226.0635458350341</v>
+        <v>226.0635458350339</v>
       </c>
       <c r="M26" t="n">
-        <v>251.5392525235234</v>
+        <v>251.5392525235233</v>
       </c>
       <c r="N26" t="n">
-        <v>255.6094206055461</v>
+        <v>255.6094206055459</v>
       </c>
       <c r="O26" t="n">
-        <v>241.3647276480053</v>
+        <v>241.3647276480052</v>
       </c>
       <c r="P26" t="n">
-        <v>205.9992108772409</v>
+        <v>205.9992108772408</v>
       </c>
       <c r="Q26" t="n">
-        <v>154.69682832117</v>
+        <v>154.6968283211699</v>
       </c>
       <c r="R26" t="n">
-        <v>89.98599059651765</v>
+        <v>89.98599059651761</v>
       </c>
       <c r="S26" t="n">
-        <v>32.6437149737233</v>
+        <v>32.64371497372328</v>
       </c>
       <c r="T26" t="n">
-        <v>6.270888087656552</v>
+        <v>6.270888087656548</v>
       </c>
       <c r="U26" t="n">
         <v>0.1146021809280465</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.7664696569969536</v>
+        <v>0.7664696569969532</v>
       </c>
       <c r="H27" t="n">
-        <v>7.402483266260052</v>
+        <v>7.402483266260049</v>
       </c>
       <c r="I27" t="n">
-        <v>26.38941582204424</v>
+        <v>26.38941582204422</v>
       </c>
       <c r="J27" t="n">
-        <v>72.41457404110254</v>
+        <v>72.41457404110251</v>
       </c>
       <c r="K27" t="n">
         <v>123.7680410598984</v>
       </c>
       <c r="L27" t="n">
-        <v>166.4214051299745</v>
+        <v>166.4214051299744</v>
       </c>
       <c r="M27" t="n">
-        <v>194.205930196114</v>
+        <v>194.2059301961139</v>
       </c>
       <c r="N27" t="n">
-        <v>199.3459832906244</v>
+        <v>199.3459832906242</v>
       </c>
       <c r="O27" t="n">
-        <v>182.3626293119024</v>
+        <v>182.3626293119023</v>
       </c>
       <c r="P27" t="n">
-        <v>146.362087396199</v>
+        <v>146.3620873961989</v>
       </c>
       <c r="Q27" t="n">
-        <v>97.83917937385675</v>
+        <v>97.83917937385671</v>
       </c>
       <c r="R27" t="n">
-        <v>47.58835291424947</v>
+        <v>47.58835291424945</v>
       </c>
       <c r="S27" t="n">
         <v>14.23683770781621</v>
       </c>
       <c r="T27" t="n">
-        <v>3.089410591141228</v>
+        <v>3.089410591141227</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05042563532874696</v>
+        <v>0.05042563532874694</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6425824130417369</v>
+        <v>0.6425824130417366</v>
       </c>
       <c r="H28" t="n">
-        <v>5.713141817771083</v>
+        <v>5.71314181777108</v>
       </c>
       <c r="I28" t="n">
-        <v>19.32420565765515</v>
+        <v>19.32420565765514</v>
       </c>
       <c r="J28" t="n">
-        <v>45.4305766020508</v>
+        <v>45.43057660205078</v>
       </c>
       <c r="K28" t="n">
-        <v>74.65639307884906</v>
+        <v>74.65639307884902</v>
       </c>
       <c r="L28" t="n">
-        <v>95.53447984440515</v>
+        <v>95.53447984440511</v>
       </c>
       <c r="M28" t="n">
         <v>100.7277140734424</v>
       </c>
       <c r="N28" t="n">
-        <v>98.33263417028697</v>
+        <v>98.33263417028691</v>
       </c>
       <c r="O28" t="n">
-        <v>90.82610325429935</v>
+        <v>90.82610325429931</v>
       </c>
       <c r="P28" t="n">
-        <v>77.71742202824787</v>
+        <v>77.71742202824782</v>
       </c>
       <c r="Q28" t="n">
-        <v>53.8075146047949</v>
+        <v>53.80751460479487</v>
       </c>
       <c r="R28" t="n">
-        <v>28.89284195367664</v>
+        <v>28.89284195367662</v>
       </c>
       <c r="S28" t="n">
-        <v>11.19845896182736</v>
+        <v>11.19845896182735</v>
       </c>
       <c r="T28" t="n">
-        <v>2.74557940117833</v>
+        <v>2.745579401178329</v>
       </c>
       <c r="U28" t="n">
-        <v>0.0350499498022766</v>
+        <v>0.03504994980227658</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33180,40 +33180,40 @@
         <v>14.67086981786696</v>
       </c>
       <c r="I29" t="n">
-        <v>55.2275072528565</v>
+        <v>55.22750725285647</v>
       </c>
       <c r="J29" t="n">
         <v>121.5839606692725</v>
       </c>
       <c r="K29" t="n">
-        <v>182.2228396528252</v>
+        <v>182.2228396528251</v>
       </c>
       <c r="L29" t="n">
-        <v>226.0635458350341</v>
+        <v>226.0635458350339</v>
       </c>
       <c r="M29" t="n">
-        <v>251.5392525235234</v>
+        <v>251.5392525235233</v>
       </c>
       <c r="N29" t="n">
-        <v>255.6094206055461</v>
+        <v>255.6094206055459</v>
       </c>
       <c r="O29" t="n">
-        <v>241.3647276480053</v>
+        <v>241.3647276480052</v>
       </c>
       <c r="P29" t="n">
-        <v>205.9992108772409</v>
+        <v>205.9992108772408</v>
       </c>
       <c r="Q29" t="n">
-        <v>154.69682832117</v>
+        <v>154.6968283211699</v>
       </c>
       <c r="R29" t="n">
-        <v>89.98599059651765</v>
+        <v>89.98599059651761</v>
       </c>
       <c r="S29" t="n">
-        <v>32.6437149737233</v>
+        <v>32.64371497372328</v>
       </c>
       <c r="T29" t="n">
-        <v>6.270888087656552</v>
+        <v>6.270888087656548</v>
       </c>
       <c r="U29" t="n">
         <v>0.1146021809280465</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.7664696569969536</v>
+        <v>0.7664696569969532</v>
       </c>
       <c r="H30" t="n">
-        <v>7.402483266260052</v>
+        <v>7.402483266260049</v>
       </c>
       <c r="I30" t="n">
-        <v>26.38941582204424</v>
+        <v>26.38941582204422</v>
       </c>
       <c r="J30" t="n">
-        <v>72.41457404110254</v>
+        <v>72.41457404110251</v>
       </c>
       <c r="K30" t="n">
         <v>123.7680410598984</v>
       </c>
       <c r="L30" t="n">
-        <v>166.4214051299745</v>
+        <v>166.4214051299744</v>
       </c>
       <c r="M30" t="n">
-        <v>194.205930196114</v>
+        <v>194.2059301961139</v>
       </c>
       <c r="N30" t="n">
-        <v>199.3459832906244</v>
+        <v>199.3459832906242</v>
       </c>
       <c r="O30" t="n">
-        <v>182.3626293119024</v>
+        <v>182.3626293119023</v>
       </c>
       <c r="P30" t="n">
-        <v>146.362087396199</v>
+        <v>146.3620873961989</v>
       </c>
       <c r="Q30" t="n">
-        <v>97.83917937385675</v>
+        <v>97.83917937385671</v>
       </c>
       <c r="R30" t="n">
-        <v>47.58835291424947</v>
+        <v>47.58835291424945</v>
       </c>
       <c r="S30" t="n">
         <v>14.23683770781621</v>
       </c>
       <c r="T30" t="n">
-        <v>3.089410591141228</v>
+        <v>3.089410591141227</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05042563532874696</v>
+        <v>0.05042563532874694</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6425824130417369</v>
+        <v>0.6425824130417366</v>
       </c>
       <c r="H31" t="n">
-        <v>5.713141817771083</v>
+        <v>5.71314181777108</v>
       </c>
       <c r="I31" t="n">
-        <v>19.32420565765515</v>
+        <v>19.32420565765514</v>
       </c>
       <c r="J31" t="n">
-        <v>45.4305766020508</v>
+        <v>45.43057660205078</v>
       </c>
       <c r="K31" t="n">
-        <v>74.65639307884906</v>
+        <v>74.65639307884902</v>
       </c>
       <c r="L31" t="n">
-        <v>95.53447984440515</v>
+        <v>95.53447984440511</v>
       </c>
       <c r="M31" t="n">
         <v>100.7277140734424</v>
       </c>
       <c r="N31" t="n">
-        <v>98.33263417028697</v>
+        <v>98.33263417028691</v>
       </c>
       <c r="O31" t="n">
-        <v>90.82610325429935</v>
+        <v>90.82610325429931</v>
       </c>
       <c r="P31" t="n">
-        <v>77.71742202824787</v>
+        <v>77.71742202824782</v>
       </c>
       <c r="Q31" t="n">
-        <v>53.8075146047949</v>
+        <v>53.80751460479487</v>
       </c>
       <c r="R31" t="n">
-        <v>28.89284195367664</v>
+        <v>28.89284195367662</v>
       </c>
       <c r="S31" t="n">
-        <v>11.19845896182736</v>
+        <v>11.19845896182735</v>
       </c>
       <c r="T31" t="n">
-        <v>2.74557940117833</v>
+        <v>2.745579401178329</v>
       </c>
       <c r="U31" t="n">
-        <v>0.0350499498022766</v>
+        <v>0.03504994980227658</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33417,40 +33417,40 @@
         <v>14.67086981786696</v>
       </c>
       <c r="I32" t="n">
-        <v>55.2275072528565</v>
+        <v>55.22750725285647</v>
       </c>
       <c r="J32" t="n">
         <v>121.5839606692725</v>
       </c>
       <c r="K32" t="n">
-        <v>182.2228396528252</v>
+        <v>182.2228396528251</v>
       </c>
       <c r="L32" t="n">
-        <v>226.0635458350341</v>
+        <v>226.0635458350339</v>
       </c>
       <c r="M32" t="n">
-        <v>251.5392525235234</v>
+        <v>251.5392525235233</v>
       </c>
       <c r="N32" t="n">
-        <v>255.6094206055461</v>
+        <v>255.6094206055459</v>
       </c>
       <c r="O32" t="n">
-        <v>241.3647276480053</v>
+        <v>241.3647276480052</v>
       </c>
       <c r="P32" t="n">
-        <v>205.9992108772409</v>
+        <v>205.9992108772408</v>
       </c>
       <c r="Q32" t="n">
-        <v>154.69682832117</v>
+        <v>154.6968283211699</v>
       </c>
       <c r="R32" t="n">
-        <v>89.98599059651765</v>
+        <v>89.98599059651761</v>
       </c>
       <c r="S32" t="n">
-        <v>32.6437149737233</v>
+        <v>32.64371497372328</v>
       </c>
       <c r="T32" t="n">
-        <v>6.270888087656552</v>
+        <v>6.270888087656548</v>
       </c>
       <c r="U32" t="n">
         <v>0.1146021809280465</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.7664696569969536</v>
+        <v>0.7664696569969532</v>
       </c>
       <c r="H33" t="n">
-        <v>7.402483266260052</v>
+        <v>7.402483266260049</v>
       </c>
       <c r="I33" t="n">
-        <v>26.38941582204424</v>
+        <v>26.38941582204422</v>
       </c>
       <c r="J33" t="n">
-        <v>72.41457404110254</v>
+        <v>72.41457404110251</v>
       </c>
       <c r="K33" t="n">
         <v>123.7680410598984</v>
       </c>
       <c r="L33" t="n">
-        <v>166.4214051299745</v>
+        <v>166.4214051299744</v>
       </c>
       <c r="M33" t="n">
-        <v>194.205930196114</v>
+        <v>194.2059301961139</v>
       </c>
       <c r="N33" t="n">
-        <v>199.3459832906244</v>
+        <v>199.3459832906242</v>
       </c>
       <c r="O33" t="n">
-        <v>182.3626293119024</v>
+        <v>182.3626293119023</v>
       </c>
       <c r="P33" t="n">
-        <v>146.362087396199</v>
+        <v>146.3620873961989</v>
       </c>
       <c r="Q33" t="n">
-        <v>97.83917937385675</v>
+        <v>97.83917937385671</v>
       </c>
       <c r="R33" t="n">
-        <v>47.58835291424947</v>
+        <v>47.58835291424945</v>
       </c>
       <c r="S33" t="n">
         <v>14.23683770781621</v>
       </c>
       <c r="T33" t="n">
-        <v>3.089410591141228</v>
+        <v>3.089410591141227</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05042563532874696</v>
+        <v>0.05042563532874694</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6425824130417369</v>
+        <v>0.6425824130417366</v>
       </c>
       <c r="H34" t="n">
-        <v>5.713141817771083</v>
+        <v>5.71314181777108</v>
       </c>
       <c r="I34" t="n">
-        <v>19.32420565765515</v>
+        <v>19.32420565765514</v>
       </c>
       <c r="J34" t="n">
-        <v>45.4305766020508</v>
+        <v>45.43057660205078</v>
       </c>
       <c r="K34" t="n">
-        <v>74.65639307884906</v>
+        <v>74.65639307884902</v>
       </c>
       <c r="L34" t="n">
-        <v>95.53447984440515</v>
+        <v>95.53447984440511</v>
       </c>
       <c r="M34" t="n">
         <v>100.7277140734424</v>
       </c>
       <c r="N34" t="n">
-        <v>98.33263417028697</v>
+        <v>98.33263417028691</v>
       </c>
       <c r="O34" t="n">
-        <v>90.82610325429935</v>
+        <v>90.82610325429931</v>
       </c>
       <c r="P34" t="n">
-        <v>77.71742202824787</v>
+        <v>77.71742202824782</v>
       </c>
       <c r="Q34" t="n">
-        <v>53.8075146047949</v>
+        <v>53.80751460479487</v>
       </c>
       <c r="R34" t="n">
-        <v>28.89284195367664</v>
+        <v>28.89284195367662</v>
       </c>
       <c r="S34" t="n">
-        <v>11.19845896182736</v>
+        <v>11.19845896182735</v>
       </c>
       <c r="T34" t="n">
-        <v>2.74557940117833</v>
+        <v>2.745579401178329</v>
       </c>
       <c r="U34" t="n">
-        <v>0.0350499498022766</v>
+        <v>0.03504994980227658</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33654,40 +33654,40 @@
         <v>14.67086981786696</v>
       </c>
       <c r="I35" t="n">
-        <v>55.2275072528565</v>
+        <v>55.22750725285647</v>
       </c>
       <c r="J35" t="n">
         <v>121.5839606692725</v>
       </c>
       <c r="K35" t="n">
-        <v>182.2228396528252</v>
+        <v>182.2228396528251</v>
       </c>
       <c r="L35" t="n">
-        <v>226.0635458350341</v>
+        <v>226.0635458350339</v>
       </c>
       <c r="M35" t="n">
-        <v>251.5392525235234</v>
+        <v>251.5392525235233</v>
       </c>
       <c r="N35" t="n">
-        <v>255.6094206055461</v>
+        <v>255.6094206055459</v>
       </c>
       <c r="O35" t="n">
-        <v>241.3647276480053</v>
+        <v>241.3647276480052</v>
       </c>
       <c r="P35" t="n">
-        <v>205.9992108772409</v>
+        <v>205.9992108772408</v>
       </c>
       <c r="Q35" t="n">
-        <v>154.69682832117</v>
+        <v>154.6968283211699</v>
       </c>
       <c r="R35" t="n">
-        <v>89.98599059651765</v>
+        <v>89.98599059651761</v>
       </c>
       <c r="S35" t="n">
-        <v>32.6437149737233</v>
+        <v>32.64371497372328</v>
       </c>
       <c r="T35" t="n">
-        <v>6.270888087656552</v>
+        <v>6.270888087656548</v>
       </c>
       <c r="U35" t="n">
         <v>0.1146021809280465</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.7664696569969536</v>
+        <v>0.7664696569969532</v>
       </c>
       <c r="H36" t="n">
-        <v>7.402483266260052</v>
+        <v>7.402483266260049</v>
       </c>
       <c r="I36" t="n">
-        <v>26.38941582204424</v>
+        <v>26.38941582204422</v>
       </c>
       <c r="J36" t="n">
-        <v>72.41457404110254</v>
+        <v>72.41457404110251</v>
       </c>
       <c r="K36" t="n">
         <v>123.7680410598984</v>
       </c>
       <c r="L36" t="n">
-        <v>166.4214051299745</v>
+        <v>166.4214051299744</v>
       </c>
       <c r="M36" t="n">
-        <v>194.205930196114</v>
+        <v>194.2059301961139</v>
       </c>
       <c r="N36" t="n">
-        <v>199.3459832906244</v>
+        <v>199.3459832906242</v>
       </c>
       <c r="O36" t="n">
-        <v>182.3626293119024</v>
+        <v>182.3626293119023</v>
       </c>
       <c r="P36" t="n">
-        <v>146.362087396199</v>
+        <v>146.3620873961989</v>
       </c>
       <c r="Q36" t="n">
-        <v>97.83917937385675</v>
+        <v>97.83917937385671</v>
       </c>
       <c r="R36" t="n">
-        <v>47.58835291424947</v>
+        <v>47.58835291424945</v>
       </c>
       <c r="S36" t="n">
         <v>14.23683770781621</v>
       </c>
       <c r="T36" t="n">
-        <v>3.089410591141228</v>
+        <v>3.089410591141227</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05042563532874696</v>
+        <v>0.05042563532874694</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6425824130417369</v>
+        <v>0.6425824130417366</v>
       </c>
       <c r="H37" t="n">
-        <v>5.713141817771083</v>
+        <v>5.71314181777108</v>
       </c>
       <c r="I37" t="n">
-        <v>19.32420565765515</v>
+        <v>19.32420565765514</v>
       </c>
       <c r="J37" t="n">
-        <v>45.4305766020508</v>
+        <v>45.43057660205078</v>
       </c>
       <c r="K37" t="n">
-        <v>74.65639307884906</v>
+        <v>74.65639307884902</v>
       </c>
       <c r="L37" t="n">
-        <v>95.53447984440515</v>
+        <v>95.53447984440511</v>
       </c>
       <c r="M37" t="n">
         <v>100.7277140734424</v>
       </c>
       <c r="N37" t="n">
-        <v>98.33263417028697</v>
+        <v>98.33263417028691</v>
       </c>
       <c r="O37" t="n">
-        <v>90.82610325429935</v>
+        <v>90.82610325429931</v>
       </c>
       <c r="P37" t="n">
-        <v>77.71742202824787</v>
+        <v>77.71742202824782</v>
       </c>
       <c r="Q37" t="n">
-        <v>53.8075146047949</v>
+        <v>53.80751460479487</v>
       </c>
       <c r="R37" t="n">
-        <v>28.89284195367664</v>
+        <v>28.89284195367662</v>
       </c>
       <c r="S37" t="n">
-        <v>11.19845896182736</v>
+        <v>11.19845896182735</v>
       </c>
       <c r="T37" t="n">
-        <v>2.74557940117833</v>
+        <v>2.745579401178329</v>
       </c>
       <c r="U37" t="n">
-        <v>0.0350499498022766</v>
+        <v>0.03504994980227658</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33891,40 +33891,40 @@
         <v>14.67086981786696</v>
       </c>
       <c r="I38" t="n">
-        <v>55.2275072528565</v>
+        <v>55.22750725285647</v>
       </c>
       <c r="J38" t="n">
         <v>121.5839606692725</v>
       </c>
       <c r="K38" t="n">
-        <v>182.2228396528252</v>
+        <v>182.2228396528251</v>
       </c>
       <c r="L38" t="n">
-        <v>226.0635458350341</v>
+        <v>226.0635458350339</v>
       </c>
       <c r="M38" t="n">
-        <v>251.5392525235234</v>
+        <v>251.5392525235233</v>
       </c>
       <c r="N38" t="n">
-        <v>255.6094206055461</v>
+        <v>255.6094206055459</v>
       </c>
       <c r="O38" t="n">
-        <v>241.3647276480053</v>
+        <v>241.3647276480052</v>
       </c>
       <c r="P38" t="n">
-        <v>205.9992108772409</v>
+        <v>205.9992108772408</v>
       </c>
       <c r="Q38" t="n">
-        <v>154.69682832117</v>
+        <v>154.6968283211699</v>
       </c>
       <c r="R38" t="n">
-        <v>89.98599059651765</v>
+        <v>89.98599059651761</v>
       </c>
       <c r="S38" t="n">
-        <v>32.6437149737233</v>
+        <v>32.64371497372328</v>
       </c>
       <c r="T38" t="n">
-        <v>6.270888087656552</v>
+        <v>6.270888087656548</v>
       </c>
       <c r="U38" t="n">
         <v>0.1146021809280465</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.7664696569969536</v>
+        <v>0.7664696569969532</v>
       </c>
       <c r="H39" t="n">
-        <v>7.402483266260052</v>
+        <v>7.402483266260049</v>
       </c>
       <c r="I39" t="n">
-        <v>26.38941582204424</v>
+        <v>26.38941582204422</v>
       </c>
       <c r="J39" t="n">
-        <v>72.41457404110254</v>
+        <v>72.41457404110251</v>
       </c>
       <c r="K39" t="n">
         <v>123.7680410598984</v>
       </c>
       <c r="L39" t="n">
-        <v>166.4214051299745</v>
+        <v>166.4214051299744</v>
       </c>
       <c r="M39" t="n">
-        <v>194.205930196114</v>
+        <v>194.2059301961139</v>
       </c>
       <c r="N39" t="n">
-        <v>199.3459832906244</v>
+        <v>199.3459832906242</v>
       </c>
       <c r="O39" t="n">
-        <v>182.3626293119024</v>
+        <v>182.3626293119023</v>
       </c>
       <c r="P39" t="n">
-        <v>146.362087396199</v>
+        <v>146.3620873961989</v>
       </c>
       <c r="Q39" t="n">
-        <v>97.83917937385675</v>
+        <v>97.83917937385671</v>
       </c>
       <c r="R39" t="n">
-        <v>47.58835291424947</v>
+        <v>47.58835291424945</v>
       </c>
       <c r="S39" t="n">
         <v>14.23683770781621</v>
       </c>
       <c r="T39" t="n">
-        <v>3.089410591141228</v>
+        <v>3.089410591141227</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05042563532874696</v>
+        <v>0.05042563532874694</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6425824130417369</v>
+        <v>0.6425824130417366</v>
       </c>
       <c r="H40" t="n">
-        <v>5.713141817771083</v>
+        <v>5.71314181777108</v>
       </c>
       <c r="I40" t="n">
-        <v>19.32420565765515</v>
+        <v>19.32420565765514</v>
       </c>
       <c r="J40" t="n">
-        <v>45.4305766020508</v>
+        <v>45.43057660205078</v>
       </c>
       <c r="K40" t="n">
-        <v>74.65639307884906</v>
+        <v>74.65639307884902</v>
       </c>
       <c r="L40" t="n">
-        <v>95.53447984440515</v>
+        <v>95.53447984440511</v>
       </c>
       <c r="M40" t="n">
         <v>100.7277140734424</v>
       </c>
       <c r="N40" t="n">
-        <v>98.33263417028697</v>
+        <v>98.33263417028691</v>
       </c>
       <c r="O40" t="n">
-        <v>90.82610325429935</v>
+        <v>90.82610325429931</v>
       </c>
       <c r="P40" t="n">
-        <v>77.71742202824787</v>
+        <v>77.71742202824782</v>
       </c>
       <c r="Q40" t="n">
-        <v>53.8075146047949</v>
+        <v>53.80751460479487</v>
       </c>
       <c r="R40" t="n">
-        <v>28.89284195367664</v>
+        <v>28.89284195367662</v>
       </c>
       <c r="S40" t="n">
-        <v>11.19845896182736</v>
+        <v>11.19845896182735</v>
       </c>
       <c r="T40" t="n">
-        <v>2.74557940117833</v>
+        <v>2.745579401178329</v>
       </c>
       <c r="U40" t="n">
-        <v>0.0350499498022766</v>
+        <v>0.03504994980227658</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34128,40 +34128,40 @@
         <v>14.67086981786696</v>
       </c>
       <c r="I41" t="n">
-        <v>55.2275072528565</v>
+        <v>55.22750725285647</v>
       </c>
       <c r="J41" t="n">
         <v>121.5839606692725</v>
       </c>
       <c r="K41" t="n">
-        <v>182.2228396528252</v>
+        <v>182.2228396528251</v>
       </c>
       <c r="L41" t="n">
-        <v>226.0635458350341</v>
+        <v>226.0635458350339</v>
       </c>
       <c r="M41" t="n">
-        <v>251.5392525235234</v>
+        <v>251.5392525235233</v>
       </c>
       <c r="N41" t="n">
-        <v>255.6094206055461</v>
+        <v>255.6094206055459</v>
       </c>
       <c r="O41" t="n">
-        <v>241.3647276480053</v>
+        <v>241.3647276480052</v>
       </c>
       <c r="P41" t="n">
-        <v>205.9992108772409</v>
+        <v>205.9992108772408</v>
       </c>
       <c r="Q41" t="n">
-        <v>154.69682832117</v>
+        <v>154.6968283211699</v>
       </c>
       <c r="R41" t="n">
-        <v>89.98599059651765</v>
+        <v>89.98599059651761</v>
       </c>
       <c r="S41" t="n">
-        <v>32.6437149737233</v>
+        <v>32.64371497372328</v>
       </c>
       <c r="T41" t="n">
-        <v>6.270888087656552</v>
+        <v>6.270888087656548</v>
       </c>
       <c r="U41" t="n">
         <v>0.1146021809280465</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.7664696569969536</v>
+        <v>0.7664696569969532</v>
       </c>
       <c r="H42" t="n">
-        <v>7.402483266260052</v>
+        <v>7.402483266260049</v>
       </c>
       <c r="I42" t="n">
-        <v>26.38941582204424</v>
+        <v>26.38941582204422</v>
       </c>
       <c r="J42" t="n">
-        <v>72.41457404110254</v>
+        <v>72.41457404110251</v>
       </c>
       <c r="K42" t="n">
         <v>123.7680410598984</v>
       </c>
       <c r="L42" t="n">
-        <v>166.4214051299745</v>
+        <v>166.4214051299744</v>
       </c>
       <c r="M42" t="n">
-        <v>194.205930196114</v>
+        <v>194.2059301961139</v>
       </c>
       <c r="N42" t="n">
-        <v>199.3459832906244</v>
+        <v>199.3459832906242</v>
       </c>
       <c r="O42" t="n">
-        <v>182.3626293119024</v>
+        <v>182.3626293119023</v>
       </c>
       <c r="P42" t="n">
-        <v>146.362087396199</v>
+        <v>146.3620873961989</v>
       </c>
       <c r="Q42" t="n">
-        <v>97.83917937385675</v>
+        <v>97.83917937385671</v>
       </c>
       <c r="R42" t="n">
-        <v>47.58835291424947</v>
+        <v>47.58835291424945</v>
       </c>
       <c r="S42" t="n">
         <v>14.23683770781621</v>
       </c>
       <c r="T42" t="n">
-        <v>3.089410591141228</v>
+        <v>3.089410591141227</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05042563532874696</v>
+        <v>0.05042563532874694</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6425824130417369</v>
+        <v>0.6425824130417366</v>
       </c>
       <c r="H43" t="n">
-        <v>5.713141817771083</v>
+        <v>5.71314181777108</v>
       </c>
       <c r="I43" t="n">
-        <v>19.32420565765515</v>
+        <v>19.32420565765514</v>
       </c>
       <c r="J43" t="n">
-        <v>45.4305766020508</v>
+        <v>45.43057660205078</v>
       </c>
       <c r="K43" t="n">
-        <v>74.65639307884906</v>
+        <v>74.65639307884902</v>
       </c>
       <c r="L43" t="n">
-        <v>95.53447984440515</v>
+        <v>95.53447984440511</v>
       </c>
       <c r="M43" t="n">
         <v>100.7277140734424</v>
       </c>
       <c r="N43" t="n">
-        <v>98.33263417028697</v>
+        <v>98.33263417028691</v>
       </c>
       <c r="O43" t="n">
-        <v>90.82610325429935</v>
+        <v>90.82610325429931</v>
       </c>
       <c r="P43" t="n">
-        <v>77.71742202824787</v>
+        <v>77.71742202824782</v>
       </c>
       <c r="Q43" t="n">
-        <v>53.8075146047949</v>
+        <v>53.80751460479487</v>
       </c>
       <c r="R43" t="n">
-        <v>28.89284195367664</v>
+        <v>28.89284195367662</v>
       </c>
       <c r="S43" t="n">
-        <v>11.19845896182736</v>
+        <v>11.19845896182735</v>
       </c>
       <c r="T43" t="n">
-        <v>2.74557940117833</v>
+        <v>2.745579401178329</v>
       </c>
       <c r="U43" t="n">
-        <v>0.0350499498022766</v>
+        <v>0.03504994980227658</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34365,40 +34365,40 @@
         <v>14.67086981786696</v>
       </c>
       <c r="I44" t="n">
-        <v>55.2275072528565</v>
+        <v>55.22750725285647</v>
       </c>
       <c r="J44" t="n">
         <v>121.5839606692725</v>
       </c>
       <c r="K44" t="n">
-        <v>182.2228396528252</v>
+        <v>182.2228396528251</v>
       </c>
       <c r="L44" t="n">
-        <v>226.0635458350341</v>
+        <v>226.0635458350339</v>
       </c>
       <c r="M44" t="n">
-        <v>251.5392525235234</v>
+        <v>251.5392525235233</v>
       </c>
       <c r="N44" t="n">
-        <v>255.6094206055461</v>
+        <v>255.6094206055459</v>
       </c>
       <c r="O44" t="n">
-        <v>241.3647276480053</v>
+        <v>241.3647276480052</v>
       </c>
       <c r="P44" t="n">
-        <v>205.9992108772409</v>
+        <v>205.9992108772408</v>
       </c>
       <c r="Q44" t="n">
-        <v>154.69682832117</v>
+        <v>154.6968283211699</v>
       </c>
       <c r="R44" t="n">
-        <v>89.98599059651765</v>
+        <v>89.98599059651761</v>
       </c>
       <c r="S44" t="n">
-        <v>32.6437149737233</v>
+        <v>32.64371497372328</v>
       </c>
       <c r="T44" t="n">
-        <v>6.270888087656552</v>
+        <v>6.270888087656548</v>
       </c>
       <c r="U44" t="n">
         <v>0.1146021809280465</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.7664696569969536</v>
+        <v>0.7664696569969532</v>
       </c>
       <c r="H45" t="n">
-        <v>7.402483266260052</v>
+        <v>7.402483266260049</v>
       </c>
       <c r="I45" t="n">
-        <v>26.38941582204424</v>
+        <v>26.38941582204422</v>
       </c>
       <c r="J45" t="n">
-        <v>72.41457404110254</v>
+        <v>72.41457404110251</v>
       </c>
       <c r="K45" t="n">
         <v>123.7680410598984</v>
       </c>
       <c r="L45" t="n">
-        <v>166.4214051299745</v>
+        <v>166.4214051299744</v>
       </c>
       <c r="M45" t="n">
-        <v>194.205930196114</v>
+        <v>194.2059301961139</v>
       </c>
       <c r="N45" t="n">
-        <v>199.3459832906244</v>
+        <v>199.3459832906242</v>
       </c>
       <c r="O45" t="n">
-        <v>182.3626293119024</v>
+        <v>182.3626293119023</v>
       </c>
       <c r="P45" t="n">
-        <v>146.362087396199</v>
+        <v>146.3620873961989</v>
       </c>
       <c r="Q45" t="n">
-        <v>97.83917937385675</v>
+        <v>97.83917937385671</v>
       </c>
       <c r="R45" t="n">
-        <v>47.58835291424947</v>
+        <v>47.58835291424945</v>
       </c>
       <c r="S45" t="n">
         <v>14.23683770781621</v>
       </c>
       <c r="T45" t="n">
-        <v>3.089410591141228</v>
+        <v>3.089410591141227</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05042563532874696</v>
+        <v>0.05042563532874694</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6425824130417369</v>
+        <v>0.6425824130417366</v>
       </c>
       <c r="H46" t="n">
-        <v>5.713141817771083</v>
+        <v>5.71314181777108</v>
       </c>
       <c r="I46" t="n">
-        <v>19.32420565765515</v>
+        <v>19.32420565765514</v>
       </c>
       <c r="J46" t="n">
-        <v>45.4305766020508</v>
+        <v>45.43057660205078</v>
       </c>
       <c r="K46" t="n">
-        <v>74.65639307884906</v>
+        <v>74.65639307884902</v>
       </c>
       <c r="L46" t="n">
-        <v>95.53447984440515</v>
+        <v>95.53447984440511</v>
       </c>
       <c r="M46" t="n">
         <v>100.7277140734424</v>
       </c>
       <c r="N46" t="n">
-        <v>98.33263417028697</v>
+        <v>98.33263417028691</v>
       </c>
       <c r="O46" t="n">
-        <v>90.82610325429935</v>
+        <v>90.82610325429931</v>
       </c>
       <c r="P46" t="n">
-        <v>77.71742202824787</v>
+        <v>77.71742202824782</v>
       </c>
       <c r="Q46" t="n">
-        <v>53.8075146047949</v>
+        <v>53.80751460479487</v>
       </c>
       <c r="R46" t="n">
-        <v>28.89284195367664</v>
+        <v>28.89284195367662</v>
       </c>
       <c r="S46" t="n">
-        <v>11.19845896182736</v>
+        <v>11.19845896182735</v>
       </c>
       <c r="T46" t="n">
-        <v>2.74557940117833</v>
+        <v>2.745579401178329</v>
       </c>
       <c r="U46" t="n">
-        <v>0.0350499498022766</v>
+        <v>0.03504994980227658</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34710,16 +34710,16 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>39.64570999510202</v>
+      </c>
+      <c r="P2" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="O2" t="n">
-        <v>41.31500304752736</v>
-      </c>
-      <c r="P2" t="n">
-        <v>39.64570999510201</v>
-      </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="R2" t="n">
         <v>41.31500304752734</v>
@@ -34777,31 +34777,31 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>41.31500304752736</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>13.31876740878121</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>13.31876740878122</v>
+      </c>
+      <c r="P3" t="n">
+        <v>41.31500304752735</v>
+      </c>
+      <c r="Q3" t="n">
         <v>41.31500304752734</v>
       </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
+      <c r="R3" t="n">
         <v>41.31500304752734</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
+        <v>39.64570999510202</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="K4" t="n">
-        <v>41.31500304752736</v>
-      </c>
-      <c r="L4" t="n">
-        <v>39.64570999510201</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34941,25 +34941,25 @@
         <v>41.31500304752735</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>39.64570999510201</v>
       </c>
       <c r="N5" t="n">
-        <v>41.31500304752736</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
         <v>41.31500304752734</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>39.64570999510201</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,16 +35014,16 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
         <v>41.31500304752736</v>
       </c>
-      <c r="K6" t="n">
+      <c r="L6" t="n">
         <v>41.31500304752734</v>
       </c>
-      <c r="L6" t="n">
+      <c r="M6" t="n">
         <v>13.31876740878121</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -35099,10 +35099,10 @@
         <v>41.31500304752736</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>39.64570999510201</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -35111,10 +35111,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>39.64570999510201</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35175,16 +35175,16 @@
         <v>41.31500304752735</v>
       </c>
       <c r="K8" t="n">
-        <v>39.64570999510202</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="M8" t="n">
-        <v>41.31500304752734</v>
+        <v>39.64570999510201</v>
       </c>
       <c r="N8" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -35257,7 +35257,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35266,10 +35266,10 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>13.31876740878122</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>41.31500304752735</v>
+        <v>13.31876740878121</v>
       </c>
       <c r="Q9" t="n">
         <v>41.31500304752734</v>
@@ -35339,16 +35339,16 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="N10" t="n">
-        <v>41.31500304752736</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="O10" t="n">
-        <v>41.31500304752734</v>
+        <v>39.64570999510201</v>
       </c>
       <c r="P10" t="n">
-        <v>39.64570999510201</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>54.8148857737251</v>
+        <v>54.81488577372507</v>
       </c>
       <c r="J11" t="n">
-        <v>561.2351601166644</v>
+        <v>561.2351601166642</v>
       </c>
       <c r="K11" t="n">
-        <v>182.2228396528252</v>
+        <v>182.222839652825</v>
       </c>
       <c r="L11" t="n">
-        <v>226.0635458350341</v>
+        <v>226.063545835034</v>
       </c>
       <c r="M11" t="n">
         <v>251.5392525235234</v>
       </c>
       <c r="N11" t="n">
-        <v>255.6094206055461</v>
+        <v>255.6094206055459</v>
       </c>
       <c r="O11" t="n">
-        <v>241.3647276480053</v>
+        <v>241.3647276480051</v>
       </c>
       <c r="P11" t="n">
-        <v>235.5092358367804</v>
+        <v>235.5092358367817</v>
       </c>
       <c r="Q11" t="n">
-        <v>706.7158040369222</v>
+        <v>706.7158040369218</v>
       </c>
       <c r="R11" t="n">
         <v>260.8486822662721</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.38941582204423</v>
+        <v>52.71635840836503</v>
       </c>
       <c r="J12" t="n">
-        <v>72.41457404110254</v>
+        <v>325.0095479612422</v>
       </c>
       <c r="K12" t="n">
-        <v>123.7680410598984</v>
+        <v>123.7680410598983</v>
       </c>
       <c r="L12" t="n">
         <v>166.4214051299745</v>
@@ -35500,19 +35500,19 @@
         <v>194.205930196114</v>
       </c>
       <c r="N12" t="n">
-        <v>199.3459832906243</v>
+        <v>199.3459832906242</v>
       </c>
       <c r="O12" t="n">
         <v>182.3626293119023</v>
       </c>
       <c r="P12" t="n">
-        <v>146.3620873961991</v>
+        <v>146.3620873961988</v>
       </c>
       <c r="Q12" t="n">
-        <v>495.1174373897506</v>
+        <v>97.83917937385672</v>
       </c>
       <c r="R12" t="n">
-        <v>47.58835291424953</v>
+        <v>165.9446944236836</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>132.8848040411314</v>
+        <v>45.43057660205077</v>
       </c>
       <c r="K13" t="n">
-        <v>352.1901855749456</v>
+        <v>297.6471075097744</v>
       </c>
       <c r="L13" t="n">
         <v>517.9687038524467</v>
@@ -35579,19 +35579,19 @@
         <v>564.8528324380011</v>
       </c>
       <c r="N13" t="n">
-        <v>545.0586979658879</v>
+        <v>545.0586979658876</v>
       </c>
       <c r="O13" t="n">
-        <v>514.7344358055939</v>
+        <v>514.7344358055936</v>
       </c>
       <c r="P13" t="n">
-        <v>116.8454893583485</v>
+        <v>428.7344866447547</v>
       </c>
       <c r="Q13" t="n">
-        <v>223.6992063869488</v>
+        <v>53.80751460479496</v>
       </c>
       <c r="R13" t="n">
-        <v>7.689198871994801</v>
+        <v>7.689198871994787</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35643,22 +35643,22 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>54.8148857737251</v>
+        <v>54.81488577372507</v>
       </c>
       <c r="J14" t="n">
-        <v>561.2351601166644</v>
+        <v>561.2351601166642</v>
       </c>
       <c r="K14" t="n">
-        <v>182.2228396528252</v>
+        <v>182.222839652825</v>
       </c>
       <c r="L14" t="n">
-        <v>226.0635458350341</v>
+        <v>751.5725302939658</v>
       </c>
       <c r="M14" t="n">
         <v>251.5392525235234</v>
       </c>
       <c r="N14" t="n">
-        <v>751.5725302939657</v>
+        <v>255.6094206055459</v>
       </c>
       <c r="O14" t="n">
         <v>241.3647276480051</v>
@@ -35667,7 +35667,7 @@
         <v>205.9992108772408</v>
       </c>
       <c r="Q14" t="n">
-        <v>240.2627193080425</v>
+        <v>210.716844537531</v>
       </c>
       <c r="R14" t="n">
         <v>260.8486822662721</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.38941582204423</v>
+        <v>52.71635840836503</v>
       </c>
       <c r="J15" t="n">
-        <v>351.3364905475623</v>
+        <v>400.2512659261656</v>
       </c>
       <c r="K15" t="n">
-        <v>123.7680410598985</v>
+        <v>166.8826646044092</v>
       </c>
       <c r="L15" t="n">
-        <v>166.4214051299746</v>
+        <v>166.4214051299745</v>
       </c>
       <c r="M15" t="n">
         <v>194.205930196114</v>
       </c>
       <c r="N15" t="n">
-        <v>199.3459832906244</v>
+        <v>199.3459832906242</v>
       </c>
       <c r="O15" t="n">
-        <v>182.3626293119023</v>
+        <v>182.3626293119021</v>
       </c>
       <c r="P15" t="n">
-        <v>146.3620873961991</v>
+        <v>146.3620873961988</v>
       </c>
       <c r="Q15" t="n">
         <v>97.83917937385672</v>
       </c>
       <c r="R15" t="n">
-        <v>165.9446944236836</v>
+        <v>47.58835291424953</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,13 +35804,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.4305766020508</v>
+        <v>45.43057660205077</v>
       </c>
       <c r="K16" t="n">
-        <v>127.7554157276203</v>
+        <v>352.1901855749455</v>
       </c>
       <c r="L16" t="n">
-        <v>517.9687038524467</v>
+        <v>463.4256257872755</v>
       </c>
       <c r="M16" t="n">
         <v>564.8528324380011</v>
@@ -35819,16 +35819,16 @@
         <v>545.0586979658876</v>
       </c>
       <c r="O16" t="n">
-        <v>514.7344358055939</v>
+        <v>514.7344358055936</v>
       </c>
       <c r="P16" t="n">
         <v>428.7344866447547</v>
       </c>
       <c r="Q16" t="n">
-        <v>223.6992063869488</v>
+        <v>53.80751460479496</v>
       </c>
       <c r="R16" t="n">
-        <v>7.689198871994801</v>
+        <v>7.689198871994787</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35880,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>54.8148857737251</v>
+        <v>54.81488577372507</v>
       </c>
       <c r="J17" t="n">
-        <v>121.5839606692725</v>
+        <v>561.2351601166642</v>
       </c>
       <c r="K17" t="n">
-        <v>651.3840640597566</v>
+        <v>182.222839652825</v>
       </c>
       <c r="L17" t="n">
-        <v>226.0635458350341</v>
+        <v>226.063545835034</v>
       </c>
       <c r="M17" t="n">
         <v>251.5392525235234</v>
       </c>
       <c r="N17" t="n">
-        <v>255.6094206055461</v>
+        <v>255.6094206055459</v>
       </c>
       <c r="O17" t="n">
-        <v>241.3647276480053</v>
+        <v>751.5725302939657</v>
       </c>
       <c r="P17" t="n">
-        <v>205.9992108772408</v>
+        <v>277.320408906573</v>
       </c>
       <c r="Q17" t="n">
-        <v>706.7158040369222</v>
+        <v>154.69682832117</v>
       </c>
       <c r="R17" t="n">
         <v>260.8486822662721</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.38941582204423</v>
+        <v>52.71635840836503</v>
       </c>
       <c r="J18" t="n">
-        <v>72.41457404110254</v>
+        <v>400.2512659261656</v>
       </c>
       <c r="K18" t="n">
-        <v>123.7680410598984</v>
+        <v>166.8826646044092</v>
       </c>
       <c r="L18" t="n">
         <v>166.4214051299745</v>
@@ -35974,13 +35974,13 @@
         <v>194.205930196114</v>
       </c>
       <c r="N18" t="n">
-        <v>199.3459832906243</v>
+        <v>199.3459832906242</v>
       </c>
       <c r="O18" t="n">
-        <v>579.6408873277962</v>
+        <v>182.3626293119021</v>
       </c>
       <c r="P18" t="n">
-        <v>146.3620873961991</v>
+        <v>146.3620873961988</v>
       </c>
       <c r="Q18" t="n">
         <v>97.83917937385672</v>
@@ -36041,13 +36041,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.4305766020508</v>
+        <v>132.8848040411314</v>
       </c>
       <c r="K19" t="n">
-        <v>297.6471075097742</v>
+        <v>352.1901855749455</v>
       </c>
       <c r="L19" t="n">
-        <v>517.9687038524467</v>
+        <v>206.079706566041</v>
       </c>
       <c r="M19" t="n">
         <v>564.8528324380011</v>
@@ -36056,16 +36056,16 @@
         <v>545.0586979658876</v>
       </c>
       <c r="O19" t="n">
-        <v>514.7344358055939</v>
+        <v>514.7344358055936</v>
       </c>
       <c r="P19" t="n">
         <v>428.7344866447547</v>
       </c>
       <c r="Q19" t="n">
-        <v>53.80751460479496</v>
+        <v>223.6992063869488</v>
       </c>
       <c r="R19" t="n">
-        <v>7.689198871994801</v>
+        <v>7.689198871994787</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>54.8148857737251</v>
+        <v>54.81488577372507</v>
       </c>
       <c r="J20" t="n">
-        <v>121.5839606692725</v>
+        <v>561.2351601166642</v>
       </c>
       <c r="K20" t="n">
-        <v>182.2228396528252</v>
+        <v>211.732864612366</v>
       </c>
       <c r="L20" t="n">
-        <v>226.063545835034</v>
+        <v>226.0635458350339</v>
       </c>
       <c r="M20" t="n">
-        <v>437.4112319815818</v>
+        <v>251.5392525235234</v>
       </c>
       <c r="N20" t="n">
-        <v>751.5725302939657</v>
+        <v>255.6094206055459</v>
       </c>
       <c r="O20" t="n">
-        <v>751.5725302939657</v>
+        <v>241.3647276480051</v>
       </c>
       <c r="P20" t="n">
         <v>205.9992108772408</v>
       </c>
       <c r="Q20" t="n">
-        <v>154.69682832117</v>
+        <v>706.7158040369218</v>
       </c>
       <c r="R20" t="n">
-        <v>89.98599059651769</v>
+        <v>260.8486822662721</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.38941582204423</v>
+        <v>52.71635840836503</v>
       </c>
       <c r="J21" t="n">
-        <v>72.41457404110254</v>
+        <v>400.2512659261656</v>
       </c>
       <c r="K21" t="n">
-        <v>123.7680410598984</v>
+        <v>166.8826646044092</v>
       </c>
       <c r="L21" t="n">
         <v>166.4214051299745</v>
@@ -36211,16 +36211,16 @@
         <v>194.205930196114</v>
       </c>
       <c r="N21" t="n">
-        <v>199.3459832906243</v>
+        <v>199.3459832906242</v>
       </c>
       <c r="O21" t="n">
-        <v>182.3626293119023</v>
+        <v>182.3626293119021</v>
       </c>
       <c r="P21" t="n">
-        <v>146.3620873961991</v>
+        <v>146.3620873961988</v>
       </c>
       <c r="Q21" t="n">
-        <v>495.1174373897506</v>
+        <v>97.83917937385672</v>
       </c>
       <c r="R21" t="n">
         <v>47.58835291424953</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.4305766020508</v>
+        <v>45.43057660205077</v>
       </c>
       <c r="K22" t="n">
-        <v>297.6471075097742</v>
+        <v>127.7554157276205</v>
       </c>
       <c r="L22" t="n">
         <v>517.9687038524467</v>
@@ -36293,16 +36293,16 @@
         <v>545.0586979658876</v>
       </c>
       <c r="O22" t="n">
-        <v>514.7344358055939</v>
+        <v>514.7344358055936</v>
       </c>
       <c r="P22" t="n">
         <v>428.7344866447547</v>
       </c>
       <c r="Q22" t="n">
-        <v>53.80751460479496</v>
+        <v>223.6992063869488</v>
       </c>
       <c r="R22" t="n">
-        <v>7.689198871994801</v>
+        <v>7.689198871994787</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36354,31 +36354,31 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>54.8148857737251</v>
+        <v>54.81488577372507</v>
       </c>
       <c r="J23" t="n">
-        <v>121.5839606692725</v>
+        <v>561.2351601166642</v>
       </c>
       <c r="K23" t="n">
-        <v>182.2228396528252</v>
+        <v>1025.000912337853</v>
       </c>
       <c r="L23" t="n">
-        <v>1263.947675153219</v>
+        <v>226.0635458350339</v>
       </c>
       <c r="M23" t="n">
-        <v>1263.947675153219</v>
+        <v>251.5392525235231</v>
       </c>
       <c r="N23" t="n">
-        <v>1255.295622162444</v>
+        <v>255.6094206055459</v>
       </c>
       <c r="O23" t="n">
-        <v>241.3647276480051</v>
+        <v>620.2185920587576</v>
       </c>
       <c r="P23" t="n">
-        <v>205.9992108772412</v>
+        <v>1042.675852123096</v>
       </c>
       <c r="Q23" t="n">
-        <v>154.69682832117</v>
+        <v>706.7158040369222</v>
       </c>
       <c r="R23" t="n">
         <v>260.8486822662717</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.38941582204424</v>
+        <v>52.71635840836504</v>
       </c>
       <c r="J24" t="n">
-        <v>72.41457404110253</v>
+        <v>400.2512659261655</v>
       </c>
       <c r="K24" t="n">
-        <v>123.7680410598984</v>
+        <v>166.8826646044092</v>
       </c>
       <c r="L24" t="n">
         <v>166.4214051299745</v>
@@ -36448,16 +36448,16 @@
         <v>194.205930196114</v>
       </c>
       <c r="N24" t="n">
-        <v>199.3459832906243</v>
+        <v>199.3459832906242</v>
       </c>
       <c r="O24" t="n">
         <v>182.3626293119023</v>
       </c>
       <c r="P24" t="n">
-        <v>146.3620873961991</v>
+        <v>146.3620873961988</v>
       </c>
       <c r="Q24" t="n">
-        <v>495.1174373897509</v>
+        <v>97.83917937385672</v>
       </c>
       <c r="R24" t="n">
         <v>47.58835291424953</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.43057660205079</v>
+        <v>45.43057660205076</v>
       </c>
       <c r="K25" t="n">
-        <v>297.6471075097742</v>
+        <v>297.6471075097749</v>
       </c>
       <c r="L25" t="n">
         <v>517.9687038524467</v>
@@ -36527,10 +36527,10 @@
         <v>564.8528324380011</v>
       </c>
       <c r="N25" t="n">
-        <v>545.0586979658876</v>
+        <v>545.0586979658874</v>
       </c>
       <c r="O25" t="n">
-        <v>514.7344358055939</v>
+        <v>514.7344358055934</v>
       </c>
       <c r="P25" t="n">
         <v>428.7344866447547</v>
@@ -36539,7 +36539,7 @@
         <v>53.80751460479496</v>
       </c>
       <c r="R25" t="n">
-        <v>7.689198871994801</v>
+        <v>7.689198871994787</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36591,25 +36591,25 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>54.8148857737251</v>
+        <v>54.81488577372507</v>
       </c>
       <c r="J26" t="n">
-        <v>121.5839606692725</v>
+        <v>561.2351601166642</v>
       </c>
       <c r="K26" t="n">
-        <v>1024.288196582612</v>
+        <v>1025.000912337853</v>
       </c>
       <c r="L26" t="n">
-        <v>226.0635458350341</v>
+        <v>604.9174102457853</v>
       </c>
       <c r="M26" t="n">
         <v>251.5392525235234</v>
       </c>
       <c r="N26" t="n">
-        <v>255.6094206055461</v>
+        <v>255.6094206055459</v>
       </c>
       <c r="O26" t="n">
-        <v>1231.445198931143</v>
+        <v>241.3647276480051</v>
       </c>
       <c r="P26" t="n">
         <v>1042.675852123096</v>
@@ -36618,7 +36618,7 @@
         <v>706.7158040369222</v>
       </c>
       <c r="R26" t="n">
-        <v>89.98599059651769</v>
+        <v>260.8486822662717</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.38941582204424</v>
+        <v>26.38941582204421</v>
       </c>
       <c r="J27" t="n">
-        <v>72.41457404110255</v>
+        <v>72.41457404110253</v>
       </c>
       <c r="K27" t="n">
-        <v>123.7680410598984</v>
+        <v>123.7680410598983</v>
       </c>
       <c r="L27" t="n">
         <v>166.4214051299745</v>
@@ -36691,10 +36691,10 @@
         <v>182.3626293119023</v>
       </c>
       <c r="P27" t="n">
-        <v>146.3620873961991</v>
+        <v>146.3620873961988</v>
       </c>
       <c r="Q27" t="n">
-        <v>495.1174373897509</v>
+        <v>495.1174373897513</v>
       </c>
       <c r="R27" t="n">
         <v>47.58835291424953</v>
@@ -36752,13 +36752,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.43057660205079</v>
+        <v>132.8848040411314</v>
       </c>
       <c r="K28" t="n">
-        <v>127.7554157276203</v>
+        <v>352.1901855749455</v>
       </c>
       <c r="L28" t="n">
-        <v>517.9687038524467</v>
+        <v>206.079706566041</v>
       </c>
       <c r="M28" t="n">
         <v>564.8528324380011</v>
@@ -36767,7 +36767,7 @@
         <v>545.0586979658876</v>
       </c>
       <c r="O28" t="n">
-        <v>514.7344358055939</v>
+        <v>514.7344358055936</v>
       </c>
       <c r="P28" t="n">
         <v>428.7344866447547</v>
@@ -36776,7 +36776,7 @@
         <v>223.6992063869488</v>
       </c>
       <c r="R28" t="n">
-        <v>7.689198871994801</v>
+        <v>7.689198871994787</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36828,31 +36828,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>54.8148857737251</v>
+        <v>54.81488577372507</v>
       </c>
       <c r="J29" t="n">
-        <v>121.5839606692725</v>
+        <v>561.2351601166642</v>
       </c>
       <c r="K29" t="n">
-        <v>182.2228396528252</v>
+        <v>1025.000912337853</v>
       </c>
       <c r="L29" t="n">
-        <v>1263.947675153219</v>
+        <v>451.5135802085022</v>
       </c>
       <c r="M29" t="n">
-        <v>1263.947675153219</v>
+        <v>251.5392525235234</v>
       </c>
       <c r="N29" t="n">
-        <v>1255.295622162444</v>
+        <v>255.6094206055459</v>
       </c>
       <c r="O29" t="n">
-        <v>241.3647276480051</v>
+        <v>1231.445198931143</v>
       </c>
       <c r="P29" t="n">
-        <v>205.9992108772412</v>
+        <v>205.9992108772408</v>
       </c>
       <c r="Q29" t="n">
-        <v>154.69682832117</v>
+        <v>706.7158040369222</v>
       </c>
       <c r="R29" t="n">
         <v>260.8486822662717</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.38941582204416</v>
+        <v>52.71635840836504</v>
       </c>
       <c r="J30" t="n">
-        <v>72.4145740411027</v>
+        <v>400.2512659261655</v>
       </c>
       <c r="K30" t="n">
-        <v>123.7680410598982</v>
+        <v>166.8826646044092</v>
       </c>
       <c r="L30" t="n">
-        <v>166.4214051299746</v>
+        <v>166.4214051299745</v>
       </c>
       <c r="M30" t="n">
         <v>194.205930196114</v>
       </c>
       <c r="N30" t="n">
-        <v>199.3459832906246</v>
+        <v>199.3459832906242</v>
       </c>
       <c r="O30" t="n">
         <v>182.3626293119023</v>
       </c>
       <c r="P30" t="n">
-        <v>146.3620873961991</v>
+        <v>146.3620873961988</v>
       </c>
       <c r="Q30" t="n">
-        <v>495.1174373897502</v>
+        <v>97.83917937385672</v>
       </c>
       <c r="R30" t="n">
-        <v>47.5883529142493</v>
+        <v>47.58835291424953</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,31 +36989,31 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.43057660205079</v>
+        <v>132.8848040411314</v>
       </c>
       <c r="K31" t="n">
-        <v>297.6471075097742</v>
+        <v>352.1901855749455</v>
       </c>
       <c r="L31" t="n">
-        <v>517.9687038524467</v>
+        <v>517.9687038524465</v>
       </c>
       <c r="M31" t="n">
-        <v>564.8528324380011</v>
+        <v>252.9638351515955</v>
       </c>
       <c r="N31" t="n">
         <v>545.0586979658876</v>
       </c>
       <c r="O31" t="n">
-        <v>514.7344358055939</v>
+        <v>514.7344358055936</v>
       </c>
       <c r="P31" t="n">
         <v>428.7344866447547</v>
       </c>
       <c r="Q31" t="n">
-        <v>53.80751460479496</v>
+        <v>223.6992063869488</v>
       </c>
       <c r="R31" t="n">
-        <v>7.689198871994801</v>
+        <v>7.689198871994787</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>54.8148857737251</v>
+        <v>54.81488577372507</v>
       </c>
       <c r="J32" t="n">
-        <v>561.2351601166644</v>
+        <v>121.5839606692724</v>
       </c>
       <c r="K32" t="n">
-        <v>182.2228396528252</v>
+        <v>1025.000912337853</v>
       </c>
       <c r="L32" t="n">
-        <v>815.6444227150519</v>
+        <v>226.0635458350339</v>
       </c>
       <c r="M32" t="n">
-        <v>1263.947675153219</v>
+        <v>251.5392525235234</v>
       </c>
       <c r="N32" t="n">
-        <v>1263.947675153219</v>
+        <v>255.6094206055459</v>
       </c>
       <c r="O32" t="n">
-        <v>241.3647276480051</v>
+        <v>1231.445198931143</v>
       </c>
       <c r="P32" t="n">
-        <v>205.9992108772412</v>
+        <v>1042.675852123096</v>
       </c>
       <c r="Q32" t="n">
-        <v>154.69682832117</v>
+        <v>706.0030882816818</v>
       </c>
       <c r="R32" t="n">
-        <v>260.8486822662717</v>
+        <v>89.98599059651769</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.38941582204424</v>
+        <v>52.71635840836504</v>
       </c>
       <c r="J33" t="n">
-        <v>72.41457404110255</v>
+        <v>400.2512659261655</v>
       </c>
       <c r="K33" t="n">
-        <v>123.7680410598984</v>
+        <v>166.8826646044092</v>
       </c>
       <c r="L33" t="n">
         <v>166.4214051299745</v>
@@ -37159,16 +37159,16 @@
         <v>194.205930196114</v>
       </c>
       <c r="N33" t="n">
-        <v>199.3459832906243</v>
+        <v>199.3459832906242</v>
       </c>
       <c r="O33" t="n">
         <v>182.3626293119023</v>
       </c>
       <c r="P33" t="n">
-        <v>146.3620873961991</v>
+        <v>146.3620873961988</v>
       </c>
       <c r="Q33" t="n">
-        <v>495.1174373897509</v>
+        <v>97.83917937385672</v>
       </c>
       <c r="R33" t="n">
         <v>47.58835291424953</v>
@@ -37226,13 +37226,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.43057660205079</v>
+        <v>132.8848040411314</v>
       </c>
       <c r="K34" t="n">
-        <v>297.6471075097742</v>
+        <v>352.1901855749455</v>
       </c>
       <c r="L34" t="n">
-        <v>517.9687038524467</v>
+        <v>206.079706566041</v>
       </c>
       <c r="M34" t="n">
         <v>564.8528324380011</v>
@@ -37241,16 +37241,16 @@
         <v>545.0586979658876</v>
       </c>
       <c r="O34" t="n">
-        <v>514.7344358055939</v>
+        <v>514.7344358055936</v>
       </c>
       <c r="P34" t="n">
         <v>428.7344866447547</v>
       </c>
       <c r="Q34" t="n">
-        <v>53.80751460479496</v>
+        <v>223.6992063869488</v>
       </c>
       <c r="R34" t="n">
-        <v>7.689198871994801</v>
+        <v>7.689198871994787</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37302,31 +37302,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>54.8148857737251</v>
+        <v>54.81488577372507</v>
       </c>
       <c r="J35" t="n">
-        <v>561.2351601166644</v>
+        <v>561.2351601166642</v>
       </c>
       <c r="K35" t="n">
-        <v>211.7328646123648</v>
+        <v>182.222839652825</v>
       </c>
       <c r="L35" t="n">
-        <v>226.0635458350341</v>
+        <v>226.063545835034</v>
       </c>
       <c r="M35" t="n">
         <v>251.5392525235234</v>
       </c>
       <c r="N35" t="n">
-        <v>255.6094206055461</v>
+        <v>255.6094206055459</v>
       </c>
       <c r="O35" t="n">
-        <v>241.3647276480053</v>
+        <v>241.3647276480051</v>
       </c>
       <c r="P35" t="n">
-        <v>205.9992108772408</v>
+        <v>235.5092358367817</v>
       </c>
       <c r="Q35" t="n">
-        <v>706.7158040369222</v>
+        <v>706.7158040369218</v>
       </c>
       <c r="R35" t="n">
         <v>260.8486822662721</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.38941582204423</v>
+        <v>52.71635840836503</v>
       </c>
       <c r="J36" t="n">
-        <v>72.41457404110254</v>
+        <v>400.2512659261656</v>
       </c>
       <c r="K36" t="n">
-        <v>123.7680410598984</v>
+        <v>166.8826646044092</v>
       </c>
       <c r="L36" t="n">
         <v>166.4214051299745</v>
@@ -37396,16 +37396,16 @@
         <v>194.205930196114</v>
       </c>
       <c r="N36" t="n">
-        <v>199.3459832906243</v>
+        <v>199.3459832906242</v>
       </c>
       <c r="O36" t="n">
-        <v>182.3626293119023</v>
+        <v>182.3626293119021</v>
       </c>
       <c r="P36" t="n">
-        <v>146.3620873961991</v>
+        <v>146.3620873961988</v>
       </c>
       <c r="Q36" t="n">
-        <v>495.1174373897506</v>
+        <v>97.83917937385672</v>
       </c>
       <c r="R36" t="n">
         <v>47.58835291424953</v>
@@ -37463,13 +37463,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.4305766020508</v>
+        <v>132.8848040411314</v>
       </c>
       <c r="K37" t="n">
-        <v>297.6471075097742</v>
+        <v>352.1901855749455</v>
       </c>
       <c r="L37" t="n">
-        <v>517.9687038524467</v>
+        <v>517.9687038524465</v>
       </c>
       <c r="M37" t="n">
         <v>564.8528324380011</v>
@@ -37481,13 +37481,13 @@
         <v>514.7344358055939</v>
       </c>
       <c r="P37" t="n">
-        <v>428.7344866447547</v>
+        <v>116.8454893583489</v>
       </c>
       <c r="Q37" t="n">
-        <v>53.80751460479496</v>
+        <v>223.6992063869488</v>
       </c>
       <c r="R37" t="n">
-        <v>7.689198871994801</v>
+        <v>7.689198871994787</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37539,31 +37539,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>54.8148857737251</v>
+        <v>54.81488577372507</v>
       </c>
       <c r="J38" t="n">
-        <v>561.2351601166644</v>
+        <v>561.2351601166642</v>
       </c>
       <c r="K38" t="n">
-        <v>182.2228396528252</v>
+        <v>182.222839652825</v>
       </c>
       <c r="L38" t="n">
-        <v>226.0635458350341</v>
+        <v>226.063545835034</v>
       </c>
       <c r="M38" t="n">
-        <v>281.049277483063</v>
+        <v>251.5392525235234</v>
       </c>
       <c r="N38" t="n">
-        <v>255.6094206055461</v>
+        <v>255.6094206055459</v>
       </c>
       <c r="O38" t="n">
-        <v>241.3647276480053</v>
+        <v>241.3647276480051</v>
       </c>
       <c r="P38" t="n">
-        <v>205.9992108772408</v>
+        <v>235.5092358367817</v>
       </c>
       <c r="Q38" t="n">
-        <v>706.7158040369222</v>
+        <v>706.7158040369218</v>
       </c>
       <c r="R38" t="n">
         <v>260.8486822662721</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.38941582204423</v>
+        <v>52.71635840836503</v>
       </c>
       <c r="J39" t="n">
-        <v>72.41457404110254</v>
+        <v>400.2512659261656</v>
       </c>
       <c r="K39" t="n">
-        <v>123.7680410598984</v>
+        <v>166.8826646044092</v>
       </c>
       <c r="L39" t="n">
         <v>166.4214051299745</v>
@@ -37633,16 +37633,16 @@
         <v>194.205930196114</v>
       </c>
       <c r="N39" t="n">
-        <v>199.3459832906243</v>
+        <v>199.3459832906242</v>
       </c>
       <c r="O39" t="n">
-        <v>182.3626293119023</v>
+        <v>182.3626293119021</v>
       </c>
       <c r="P39" t="n">
-        <v>146.3620873961991</v>
+        <v>146.3620873961988</v>
       </c>
       <c r="Q39" t="n">
-        <v>495.1174373897506</v>
+        <v>97.83917937385672</v>
       </c>
       <c r="R39" t="n">
         <v>47.58835291424953</v>
@@ -37700,13 +37700,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>132.8848040411314</v>
+        <v>45.43057660205077</v>
       </c>
       <c r="K40" t="n">
-        <v>74.65639307884905</v>
+        <v>297.6471075097744</v>
       </c>
       <c r="L40" t="n">
-        <v>483.6134990621372</v>
+        <v>517.9687038524467</v>
       </c>
       <c r="M40" t="n">
         <v>564.8528324380011</v>
@@ -37715,16 +37715,16 @@
         <v>545.0586979658876</v>
       </c>
       <c r="O40" t="n">
-        <v>514.7344358055939</v>
+        <v>514.7344358055936</v>
       </c>
       <c r="P40" t="n">
         <v>428.7344866447547</v>
       </c>
       <c r="Q40" t="n">
-        <v>223.6992063869488</v>
+        <v>53.80751460479496</v>
       </c>
       <c r="R40" t="n">
-        <v>7.689198871994801</v>
+        <v>7.689198871994787</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37776,31 +37776,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>54.8148857737251</v>
+        <v>54.81488577372507</v>
       </c>
       <c r="J41" t="n">
-        <v>561.2351601166644</v>
+        <v>561.2351601166642</v>
       </c>
       <c r="K41" t="n">
-        <v>182.2228396528252</v>
+        <v>182.222839652825</v>
       </c>
       <c r="L41" t="n">
-        <v>226.0635458350341</v>
+        <v>226.063545835034</v>
       </c>
       <c r="M41" t="n">
         <v>251.5392525235234</v>
       </c>
       <c r="N41" t="n">
-        <v>255.6094206055461</v>
+        <v>255.6094206055459</v>
       </c>
       <c r="O41" t="n">
-        <v>241.3647276480053</v>
+        <v>241.3647276480051</v>
       </c>
       <c r="P41" t="n">
-        <v>235.5092358367804</v>
+        <v>235.5092358367817</v>
       </c>
       <c r="Q41" t="n">
-        <v>706.7158040369222</v>
+        <v>706.7158040369218</v>
       </c>
       <c r="R41" t="n">
         <v>260.8486822662721</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.38941582204423</v>
+        <v>52.71635840836503</v>
       </c>
       <c r="J42" t="n">
-        <v>351.3364905475623</v>
+        <v>400.2512659261656</v>
       </c>
       <c r="K42" t="n">
-        <v>123.7680410598985</v>
+        <v>166.8826646044092</v>
       </c>
       <c r="L42" t="n">
-        <v>166.4214051299746</v>
+        <v>166.4214051299745</v>
       </c>
       <c r="M42" t="n">
         <v>194.205930196114</v>
       </c>
       <c r="N42" t="n">
-        <v>199.3459832906244</v>
+        <v>199.3459832906242</v>
       </c>
       <c r="O42" t="n">
-        <v>182.3626293119023</v>
+        <v>182.3626293119021</v>
       </c>
       <c r="P42" t="n">
-        <v>146.3620873961991</v>
+        <v>146.3620873961988</v>
       </c>
       <c r="Q42" t="n">
         <v>97.83917937385672</v>
       </c>
       <c r="R42" t="n">
-        <v>165.9446944236836</v>
+        <v>47.58835291424953</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.4305766020508</v>
+        <v>45.43057660205077</v>
       </c>
       <c r="K43" t="n">
-        <v>297.6471075097742</v>
+        <v>297.6471075097744</v>
       </c>
       <c r="L43" t="n">
         <v>517.9687038524467</v>
@@ -37952,7 +37952,7 @@
         <v>545.0586979658876</v>
       </c>
       <c r="O43" t="n">
-        <v>514.7344358055939</v>
+        <v>514.7344358055936</v>
       </c>
       <c r="P43" t="n">
         <v>428.7344866447547</v>
@@ -37961,7 +37961,7 @@
         <v>53.80751460479496</v>
       </c>
       <c r="R43" t="n">
-        <v>7.689198871994801</v>
+        <v>7.689198871994787</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38013,22 +38013,22 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>54.8148857737251</v>
+        <v>54.81488577372507</v>
       </c>
       <c r="J44" t="n">
-        <v>561.2351601166644</v>
+        <v>561.2351601166642</v>
       </c>
       <c r="K44" t="n">
-        <v>263.718562557675</v>
+        <v>211.732864612366</v>
       </c>
       <c r="L44" t="n">
-        <v>226.0635458350341</v>
+        <v>226.0635458350339</v>
       </c>
       <c r="M44" t="n">
-        <v>751.5725302939657</v>
+        <v>251.5392525235234</v>
       </c>
       <c r="N44" t="n">
-        <v>255.6094206055461</v>
+        <v>255.6094206055459</v>
       </c>
       <c r="O44" t="n">
         <v>241.3647276480051</v>
@@ -38037,7 +38037,7 @@
         <v>205.9992108772408</v>
       </c>
       <c r="Q44" t="n">
-        <v>154.69682832117</v>
+        <v>706.7158040369218</v>
       </c>
       <c r="R44" t="n">
         <v>260.8486822662721</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.38941582204423</v>
+        <v>52.71635840836503</v>
       </c>
       <c r="J45" t="n">
-        <v>351.3364905475623</v>
+        <v>400.2512659261656</v>
       </c>
       <c r="K45" t="n">
-        <v>123.7680410598985</v>
+        <v>166.8826646044092</v>
       </c>
       <c r="L45" t="n">
-        <v>166.4214051299746</v>
+        <v>166.4214051299745</v>
       </c>
       <c r="M45" t="n">
         <v>194.205930196114</v>
       </c>
       <c r="N45" t="n">
-        <v>199.3459832906244</v>
+        <v>199.3459832906242</v>
       </c>
       <c r="O45" t="n">
-        <v>182.3626293119023</v>
+        <v>182.3626293119021</v>
       </c>
       <c r="P45" t="n">
-        <v>146.3620873961991</v>
+        <v>146.3620873961988</v>
       </c>
       <c r="Q45" t="n">
         <v>97.83917937385672</v>
       </c>
       <c r="R45" t="n">
-        <v>165.9446944236836</v>
+        <v>47.58835291424953</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.4305766020508</v>
+        <v>45.43057660205077</v>
       </c>
       <c r="K46" t="n">
-        <v>297.6471075097742</v>
+        <v>127.7554157276205</v>
       </c>
       <c r="L46" t="n">
         <v>517.9687038524467</v>
@@ -38189,16 +38189,16 @@
         <v>545.0586979658876</v>
       </c>
       <c r="O46" t="n">
-        <v>514.7344358055939</v>
+        <v>514.7344358055936</v>
       </c>
       <c r="P46" t="n">
         <v>428.7344866447547</v>
       </c>
       <c r="Q46" t="n">
-        <v>53.80751460479496</v>
+        <v>223.6992063869488</v>
       </c>
       <c r="R46" t="n">
-        <v>7.689198871994801</v>
+        <v>7.689198871994787</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
